--- a/controller/src/main/resources/jxls_templates/decisionconsignment.xlsx
+++ b/controller/src/main/resources/jxls_templates/decisionconsignment.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" activeTab="1"/>
+    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
@@ -22,8 +22,32 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ADMIN</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:area(lastCell="H50")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
   <si>
     <t>PJ名(和文)</t>
     <rPh sb="4" eb="6">
@@ -299,10 +323,6 @@
   </si>
   <si>
     <t>起案者内線</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起案者</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1070,9 +1090,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>委託先略</t>
-  </si>
-  <si>
     <t>委託先場所（和文）</t>
     <rPh sb="3" eb="5">
       <t>ﾊﾞｼｮ</t>
@@ -1127,11 +1144,111 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${award.user_id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.custojapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.custochinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>委託先略</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.placejapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.placechinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.deployment}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.pjnamejapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.pjnamechinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.currencyposition}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${startTime)}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${endTime}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起案者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.user_id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.telephone}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${award.draftingdate}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${award.user_id}</t>
+    <t>${award.SCHEDULEDDATE}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.plan}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.valuation}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.individual}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.extrinsic}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.equipment}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.commdepartment}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.commission}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.remarks}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.deliverydate}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1143,7 +1260,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1320,15 +1437,22 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="SimSun"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="FangSong"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="SimSun"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1622,7 +1746,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="195">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1636,22 +1760,10 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="40" fontId="6" fillId="2" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1690,12 +1802,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1745,12 +1851,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="3" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1759,12 +1859,6 @@
     </xf>
     <xf numFmtId="176" fontId="18" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="4" applyFont="1"/>
     <xf numFmtId="177" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1797,9 +1891,6 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1827,13 +1918,67 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1863,78 +2008,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2225,6 +2298,27 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2533,11 +2627,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
@@ -2552,586 +2646,630 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="80" t="s">
+        <v>77</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="G1" s="82" t="s">
         <v>78</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="G1" s="75" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="76"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
+    </row>
+    <row r="3" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A3" s="55" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="12" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="84"/>
+      <c r="H3" s="85"/>
+    </row>
+    <row r="4" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A4" s="54" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-    </row>
-    <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="66" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="13" t="s">
+      <c r="G4" s="84"/>
+      <c r="H4" s="85"/>
+    </row>
+    <row r="5" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A5" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="78"/>
-    </row>
-    <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="65" t="s">
+      <c r="G5" s="84"/>
+      <c r="H5" s="85"/>
+    </row>
+    <row r="6" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A6" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="B4" s="9"/>
-      <c r="C4" s="12" t="s">
+      <c r="B6" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="77"/>
-      <c r="H4" s="78"/>
-    </row>
-    <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="65" t="s">
+      <c r="G6" s="84"/>
+      <c r="H6" s="85"/>
+    </row>
+    <row r="7" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A7" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="13" t="s">
+      <c r="B7" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="84"/>
+      <c r="H7" s="85"/>
+    </row>
+    <row r="8" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A8" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="77"/>
-      <c r="H5" s="78"/>
-    </row>
-    <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="67" t="s">
-        <v>100</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="12" t="s">
+      <c r="G8" s="84"/>
+      <c r="H8" s="85"/>
+    </row>
+    <row r="9" spans="1:8" s="6" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A9" s="55" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="78"/>
-    </row>
-    <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="67" t="s">
-        <v>101</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="12" t="s">
+      <c r="D9" s="1"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="85"/>
+    </row>
+    <row r="10" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A10" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="77"/>
-      <c r="H7" s="78"/>
-    </row>
-    <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="65" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" s="44"/>
-      <c r="C8" s="13" t="s">
+      <c r="G10" s="84"/>
+      <c r="H10" s="85"/>
+    </row>
+    <row r="11" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A11" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" s="84"/>
+      <c r="H11" s="85"/>
+    </row>
+    <row r="12" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A12" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="84"/>
+      <c r="H12" s="85"/>
+    </row>
+    <row r="13" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A13" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="C13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="77"/>
-      <c r="H8" s="78"/>
-    </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="66" t="s">
+      <c r="G13" s="84"/>
+      <c r="H13" s="85"/>
+    </row>
+    <row r="14" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A14" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="84"/>
+      <c r="H14" s="85"/>
+    </row>
+    <row r="15" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A15" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G15" s="84"/>
+      <c r="H15" s="85"/>
+    </row>
+    <row r="16" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A16" s="54" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="84"/>
+      <c r="H16" s="85"/>
+    </row>
+    <row r="17" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A17" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G17" s="84"/>
+      <c r="H17" s="85"/>
+    </row>
+    <row r="18" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A18" s="54" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="12" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="84"/>
+      <c r="H18" s="85"/>
+    </row>
+    <row r="19" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A19" s="54" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="G9" s="77"/>
-      <c r="H9" s="78"/>
-    </row>
-    <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="65" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="9"/>
-      <c r="C10" s="12" t="s">
+      <c r="G19" s="84"/>
+      <c r="H19" s="85"/>
+    </row>
+    <row r="20" spans="1:8" s="6" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A20" s="54" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="77"/>
-      <c r="H10" s="78"/>
-    </row>
-    <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A11" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" s="9"/>
-      <c r="C11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="77"/>
-      <c r="H11" s="78"/>
-    </row>
-    <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A12" s="65" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="77"/>
-      <c r="H12" s="78"/>
-    </row>
-    <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A13" s="65" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="4"/>
-      <c r="C13" s="13" t="s">
+      <c r="G20" s="84"/>
+      <c r="H20" s="85"/>
+    </row>
+    <row r="21" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A21" s="54" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="5"/>
+      <c r="C21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="77"/>
-      <c r="H13" s="78"/>
-    </row>
-    <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A14" s="65" t="s">
-        <v>3</v>
-      </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="77"/>
-      <c r="H14" s="78"/>
-    </row>
-    <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A15" s="65" t="s">
-        <v>4</v>
-      </c>
-      <c r="B15" s="10"/>
-      <c r="C15" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
-    </row>
-    <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A16" s="65" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="44"/>
-      <c r="C16" s="13" t="s">
+      <c r="G21" s="84"/>
+      <c r="H21" s="85"/>
+    </row>
+    <row r="22" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A22" s="54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B22" s="5"/>
+      <c r="C22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="77"/>
-      <c r="H16" s="78"/>
-    </row>
-    <row r="17" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A17" s="65" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="62"/>
-      <c r="C17" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="77"/>
-      <c r="H17" s="78"/>
-    </row>
-    <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="65" t="s">
+      <c r="G22" s="84"/>
+      <c r="H22" s="85"/>
+    </row>
+    <row r="23" spans="1:8" s="6" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A23" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="B18" s="44"/>
-      <c r="C18" s="13" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="77"/>
-      <c r="H18" s="78"/>
-    </row>
-    <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="65" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="77"/>
-      <c r="H19" s="78"/>
-    </row>
-    <row r="20" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="65" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="78"/>
-    </row>
-    <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="13" t="s">
+      <c r="G23" s="84"/>
+      <c r="H23" s="85"/>
+    </row>
+    <row r="24" spans="1:8" s="6" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A24" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5"/>
+      <c r="C24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="77"/>
-      <c r="H21" s="78"/>
-    </row>
-    <row r="22" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A22" s="65" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="44"/>
-      <c r="C22" s="13" t="s">
+      <c r="G24" s="84"/>
+      <c r="H24" s="85"/>
+    </row>
+    <row r="25" spans="1:8" s="6" customFormat="1" ht="13.5" customHeight="1">
+      <c r="A25" s="55" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="5"/>
+      <c r="C25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="77"/>
-      <c r="H22" s="78"/>
-    </row>
-    <row r="23" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="66" t="s">
-        <v>76</v>
-      </c>
-      <c r="B23" s="8"/>
-      <c r="C23" s="13" t="s">
+      <c r="G25" s="84"/>
+      <c r="H25" s="85"/>
+    </row>
+    <row r="26" spans="1:8" ht="12.75" customHeight="1">
+      <c r="A26" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B26" s="5"/>
+      <c r="C26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="77"/>
-      <c r="H23" s="78"/>
-    </row>
-    <row r="24" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="66" t="s">
-        <v>77</v>
-      </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="77"/>
-      <c r="H24" s="78"/>
-    </row>
-    <row r="25" spans="1:8" s="7" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A25" s="66" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" s="45"/>
-      <c r="C25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="77"/>
-      <c r="H25" s="78"/>
-    </row>
-    <row r="26" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A26" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="77"/>
-      <c r="H26" s="78"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="85"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
-      <c r="A27" s="68"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="77"/>
-      <c r="H27" s="78"/>
+      <c r="G27" s="84"/>
+      <c r="H27" s="85"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A28" s="69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B28" s="69" t="s">
+      <c r="A28" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B28" s="58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="71" t="s">
+      <c r="D28" s="60" t="s">
         <v>67</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="E28" s="60" t="s">
         <v>68</v>
       </c>
-      <c r="E28" s="71" t="s">
+      <c r="F28" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="F28" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="77"/>
-      <c r="H28" s="78"/>
+      <c r="G28" s="84"/>
+      <c r="H28" s="85"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A29" s="70" t="str">
+      <c r="A29" s="59" t="str">
         <f>IF(B29="","","第一回")</f>
         <v/>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="56"/>
-      <c r="E29" s="56"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="77"/>
-      <c r="H29" s="78"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="85"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A30" s="70" t="str">
+      <c r="A30" s="59" t="str">
         <f>IF(B30="","","第二回")</f>
         <v/>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="77"/>
-      <c r="H30" s="78"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="84"/>
+      <c r="H30" s="85"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A31" s="70" t="str">
+      <c r="A31" s="59" t="str">
         <f>IF(B31="","","第三回")</f>
         <v/>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="77"/>
-      <c r="H31" s="78"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="84"/>
+      <c r="H31" s="85"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="70" t="str">
+      <c r="A32" s="59" t="str">
         <f>IF(B32="","","第四回")</f>
         <v/>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="56"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="80"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="46"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="86"/>
+      <c r="H32" s="87"/>
     </row>
     <row r="33" spans="1:8" ht="6.75" customHeight="1">
       <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="14.25">
-      <c r="A34" s="51" t="s">
+      <c r="A34" s="41" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="26"/>
-      <c r="C35" s="81" t="s">
-        <v>84</v>
-      </c>
-      <c r="D35" s="81"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="85"/>
+      <c r="A35" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C35" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="88"/>
+      <c r="E35" s="90" t="s">
+        <v>125</v>
+      </c>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="63"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="38" t="s">
+      <c r="A36" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="82" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="82"/>
-      <c r="E36" s="86"/>
-      <c r="F36" s="86"/>
-      <c r="G36" s="86"/>
-      <c r="H36" s="86"/>
+      <c r="B36" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="89" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="89"/>
+      <c r="E36" s="90" t="s">
+        <v>126</v>
+      </c>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="63"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="82" t="s">
+      <c r="A37" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="89"/>
+      <c r="E37" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="63"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.5">
+      <c r="A38" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="82"/>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="86"/>
-      <c r="H37" s="86"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.5">
-      <c r="A38" s="39" t="s">
-        <v>44</v>
-      </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="81" t="s">
-        <v>95</v>
-      </c>
-      <c r="D38" s="81"/>
-      <c r="E38" s="87"/>
-      <c r="F38" s="84"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="85"/>
+      <c r="D38" s="88"/>
+      <c r="E38" s="61" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="193"/>
+      <c r="G38" s="193"/>
+      <c r="H38" s="194"/>
     </row>
     <row r="39" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A39" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="B39" s="25"/>
-      <c r="C39" s="88" t="s">
-        <v>104</v>
-      </c>
-      <c r="D39" s="89"/>
-      <c r="E39" s="94"/>
-      <c r="F39" s="95"/>
-      <c r="G39" s="95"/>
-      <c r="H39" s="95"/>
+      <c r="A39" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="64" t="s">
+        <v>102</v>
+      </c>
+      <c r="D39" s="65"/>
+      <c r="E39" s="70" t="s">
+        <v>129</v>
+      </c>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
     </row>
     <row r="40" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="26"/>
-      <c r="C40" s="90"/>
-      <c r="D40" s="91"/>
-      <c r="E40" s="96"/>
-      <c r="F40" s="97"/>
-      <c r="G40" s="97"/>
-      <c r="H40" s="97"/>
+      <c r="B40" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="66"/>
+      <c r="D40" s="67"/>
+      <c r="E40" s="189"/>
+      <c r="F40" s="190"/>
+      <c r="G40" s="190"/>
+      <c r="H40" s="190"/>
     </row>
     <row r="41" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="B41" s="26"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="98"/>
-      <c r="F41" s="99"/>
-      <c r="G41" s="99"/>
-      <c r="H41" s="99"/>
+      <c r="B41" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="68"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="191"/>
+      <c r="F41" s="192"/>
+      <c r="G41" s="192"/>
+      <c r="H41" s="192"/>
     </row>
     <row r="42" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="73" t="s">
+      <c r="A42" s="76" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="76" t="s">
         <v>55</v>
       </c>
-      <c r="B42" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="102" t="s">
+      <c r="C42" s="73" t="s">
+        <v>51</v>
+      </c>
+      <c r="D42" s="74"/>
+      <c r="E42" s="74"/>
+      <c r="F42" s="75"/>
+      <c r="G42" s="81" t="s">
+        <v>60</v>
+      </c>
+      <c r="H42" s="76" t="s">
         <v>52</v>
       </c>
-      <c r="D42" s="103"/>
-      <c r="E42" s="103"/>
-      <c r="F42" s="104"/>
-      <c r="G42" s="74" t="s">
-        <v>61</v>
-      </c>
-      <c r="H42" s="73" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="73"/>
-      <c r="B43" s="73"/>
-      <c r="C43" s="41" t="s">
+      <c r="A43" s="76"/>
+      <c r="B43" s="76"/>
+      <c r="C43" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" s="38" t="s">
+        <v>63</v>
+      </c>
+      <c r="E43" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="D43" s="46" t="s">
+      <c r="F43" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="E43" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="F43" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="G43" s="73"/>
-      <c r="H43" s="73"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="40"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="42"/>
-      <c r="F44" s="42"/>
-      <c r="G44" s="105"/>
-      <c r="H44" s="52"/>
+      <c r="A44" s="34"/>
+      <c r="B44" s="36"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="36"/>
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="77"/>
+      <c r="H44" s="42"/>
     </row>
     <row r="45" spans="1:8" ht="14.25">
-      <c r="A45" s="40"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="42"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="42"/>
-      <c r="F45" s="42"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="52"/>
+      <c r="A45" s="34"/>
+      <c r="B45" s="36"/>
+      <c r="C45" s="36"/>
+      <c r="D45" s="36"/>
+      <c r="E45" s="36"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="78"/>
+      <c r="H45" s="42"/>
     </row>
     <row r="46" spans="1:8" ht="14.25">
-      <c r="A46" s="40"/>
-      <c r="B46" s="42"/>
-      <c r="C46" s="42"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="42"/>
-      <c r="F46" s="42"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="52"/>
+      <c r="A46" s="34"/>
+      <c r="B46" s="36"/>
+      <c r="C46" s="36"/>
+      <c r="D46" s="36"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
+      <c r="G46" s="78"/>
+      <c r="H46" s="42"/>
     </row>
     <row r="47" spans="1:8" ht="14.25">
-      <c r="A47" s="47"/>
-      <c r="B47" s="42"/>
-      <c r="C47" s="42"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="42"/>
-      <c r="F47" s="42"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="52"/>
+      <c r="A47" s="39"/>
+      <c r="B47" s="36"/>
+      <c r="C47" s="36"/>
+      <c r="D47" s="36"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
+      <c r="G47" s="79"/>
+      <c r="H47" s="42"/>
     </row>
     <row r="48" spans="1:8" ht="14.25">
-      <c r="A48" s="40"/>
-      <c r="B48" s="42"/>
-      <c r="C48" s="42"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="42"/>
-      <c r="F48" s="42"/>
-      <c r="G48" s="43"/>
-      <c r="H48" s="53"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="36"/>
+      <c r="C48" s="36"/>
+      <c r="D48" s="36"/>
+      <c r="E48" s="36"/>
+      <c r="F48" s="36"/>
+      <c r="G48" s="37"/>
+      <c r="H48" s="43"/>
     </row>
     <row r="49" spans="1:8" ht="15">
-      <c r="A49" s="100" t="s">
-        <v>63</v>
-      </c>
-      <c r="B49" s="101"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="48"/>
-      <c r="E49" s="48"/>
-      <c r="F49" s="48"/>
-      <c r="G49" s="48"/>
-      <c r="H49" s="54"/>
+      <c r="A49" s="71" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" s="72"/>
+      <c r="C49" s="40"/>
+      <c r="D49" s="40"/>
+      <c r="E49" s="40"/>
+      <c r="F49" s="40"/>
+      <c r="G49" s="40"/>
+      <c r="H49" s="44"/>
     </row>
   </sheetData>
   <protectedRanges>
-    <protectedRange sqref="B35:B36" name="範囲1"/>
-    <protectedRange sqref="B39:B41" name="範囲2"/>
     <protectedRange sqref="A44:F47" name="範囲3"/>
     <protectedRange sqref="H48" name="範囲4"/>
   </protectedRanges>
   <mergeCells count="19">
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G44:G47"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="G42:G43"/>
@@ -3139,30 +3277,24 @@
     <mergeCell ref="G1:H32"/>
     <mergeCell ref="C35:D35"/>
     <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E35:H35"/>
     <mergeCell ref="C37:D37"/>
     <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E35:H35"/>
+    <mergeCell ref="C38:D38"/>
     <mergeCell ref="E37:H37"/>
-    <mergeCell ref="C38:D38"/>
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="C39:D41"/>
     <mergeCell ref="E39:H41"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G44:G47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B39">
-      <formula1>"内,外"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B40:B41">
-      <formula1>"和文1通,無し"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E35">
-      <formula1>"有,無"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="76" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3173,7 +3305,9 @@
   </sheetPr>
   <dimension ref="B1:R67"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0"/>
+    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
@@ -3194,1386 +3328,1382 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="8.25" customHeight="1">
-      <c r="E1" s="24"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="2:15" ht="27">
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="16" t="s">
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
     </row>
     <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="14"/>
-      <c r="C3" s="128" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="133" t="s">
+      <c r="D3" s="114"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="120" t="s">
-        <v>41</v>
-      </c>
-      <c r="M3" s="121"/>
-      <c r="N3" s="121"/>
-      <c r="O3" s="122"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="103" t="s">
+        <v>40</v>
+      </c>
+      <c r="M3" s="104"/>
+      <c r="N3" s="104"/>
+      <c r="O3" s="105"/>
     </row>
     <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="14"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="123"/>
-      <c r="H4" s="124"/>
-      <c r="I4" s="124"/>
-      <c r="J4" s="124"/>
-      <c r="K4" s="125"/>
-      <c r="L4" s="143" t="s">
-        <v>106</v>
-      </c>
-      <c r="M4" s="144"/>
-      <c r="N4" s="144"/>
-      <c r="O4" s="145"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="112"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="112"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="107"/>
+      <c r="I4" s="107"/>
+      <c r="J4" s="107"/>
+      <c r="K4" s="108"/>
+      <c r="L4" s="126"/>
+      <c r="M4" s="127"/>
+      <c r="N4" s="127"/>
+      <c r="O4" s="128"/>
     </row>
     <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="14"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="132"/>
-      <c r="E5" s="132"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="124"/>
-      <c r="I5" s="124"/>
-      <c r="J5" s="124"/>
-      <c r="K5" s="125"/>
-      <c r="L5" s="120" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="121"/>
-      <c r="N5" s="121"/>
-      <c r="O5" s="122"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="112"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="107"/>
+      <c r="I5" s="107"/>
+      <c r="J5" s="107"/>
+      <c r="K5" s="108"/>
+      <c r="L5" s="103" t="s">
+        <v>42</v>
+      </c>
+      <c r="M5" s="104"/>
+      <c r="N5" s="104"/>
+      <c r="O5" s="105"/>
     </row>
     <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="14"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="132"/>
-      <c r="E6" s="132"/>
-      <c r="F6" s="133" t="s">
+      <c r="B6" s="10"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="123"/>
-      <c r="H6" s="124"/>
-      <c r="I6" s="124"/>
-      <c r="J6" s="124"/>
-      <c r="K6" s="125"/>
-      <c r="L6" s="134">
+      <c r="G6" s="106"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="107"/>
+      <c r="J6" s="107"/>
+      <c r="K6" s="108"/>
+      <c r="L6" s="117" t="str">
         <f>記入!B38</f>
-        <v>0</v>
-      </c>
-      <c r="M6" s="135"/>
-      <c r="N6" s="135"/>
-      <c r="O6" s="136"/>
+        <v>${award.SCHEDULEDDATE}</v>
+      </c>
+      <c r="M6" s="118"/>
+      <c r="N6" s="118"/>
+      <c r="O6" s="119"/>
     </row>
     <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="14"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="123"/>
-      <c r="H7" s="124"/>
-      <c r="I7" s="124"/>
-      <c r="J7" s="124"/>
-      <c r="K7" s="125"/>
-      <c r="L7" s="137" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="112"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="112"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="107"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="107"/>
+      <c r="K7" s="108"/>
+      <c r="L7" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="138"/>
-      <c r="N7" s="138"/>
-      <c r="O7" s="139"/>
+      <c r="M7" s="121"/>
+      <c r="N7" s="121"/>
+      <c r="O7" s="122"/>
     </row>
     <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="14"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="132"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="130"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="126"/>
-      <c r="I8" s="126"/>
-      <c r="J8" s="126"/>
-      <c r="K8" s="127"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="141"/>
-      <c r="N8" s="141"/>
-      <c r="O8" s="142"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="106"/>
+      <c r="H8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="123"/>
+      <c r="M8" s="124"/>
+      <c r="N8" s="124"/>
+      <c r="O8" s="125"/>
     </row>
     <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="14"/>
-      <c r="C9" s="33" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="156" t="s">
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+      <c r="H9" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="I9" s="156" t="s">
+      <c r="I9" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="J9" s="156" t="s">
+      <c r="J9" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="185" t="s">
+      <c r="K9" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="L9" s="120" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="121"/>
-      <c r="N9" s="189">
+      <c r="L9" s="103" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" s="104"/>
+      <c r="N9" s="172" t="str">
         <f>記入!B39</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="190"/>
+        <v>${award.plan}</v>
+      </c>
+      <c r="O9" s="173"/>
     </row>
     <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="14"/>
-      <c r="C10" s="147">
+      <c r="B10" s="10"/>
+      <c r="C10" s="130" t="str">
         <f>記入!B9</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="148"/>
-      <c r="E10" s="148"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="156"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="156"/>
-      <c r="K10" s="185"/>
-      <c r="L10" s="120" t="s">
+        <v>${award.deployment}</v>
+      </c>
+      <c r="D10" s="131"/>
+      <c r="E10" s="131"/>
+      <c r="F10" s="131"/>
+      <c r="G10" s="132"/>
+      <c r="H10" s="139"/>
+      <c r="I10" s="139"/>
+      <c r="J10" s="139"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="103" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="121"/>
-      <c r="N10" s="121"/>
-      <c r="O10" s="122"/>
+      <c r="M10" s="104"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="105"/>
     </row>
     <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="14"/>
-      <c r="C11" s="150"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="151"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="156"/>
-      <c r="I11" s="156"/>
-      <c r="J11" s="156" t="s">
-        <v>107</v>
-      </c>
-      <c r="K11" s="188">
+      <c r="B11" s="10"/>
+      <c r="C11" s="133"/>
+      <c r="D11" s="134"/>
+      <c r="E11" s="134"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="139"/>
+      <c r="I11" s="139"/>
+      <c r="J11" s="139"/>
+      <c r="K11" s="171" t="str">
         <f>記入!B36</f>
-        <v>0</v>
-      </c>
-      <c r="L11" s="186">
+        <v>${award.telephone}</v>
+      </c>
+      <c r="L11" s="169" t="str">
         <f>記入!B20</f>
-        <v>0</v>
-      </c>
-      <c r="M11" s="187"/>
-      <c r="N11" s="172">
+        <v>${award.claimamount}</v>
+      </c>
+      <c r="M11" s="170"/>
+      <c r="N11" s="155" t="str">
         <f>記入!B19</f>
-        <v>0</v>
-      </c>
-      <c r="O11" s="173"/>
+        <v>${award.currencyposition}</v>
+      </c>
+      <c r="O11" s="156"/>
     </row>
     <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="14"/>
-      <c r="C12" s="34" t="s">
+      <c r="B12" s="10"/>
+      <c r="C12" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="156"/>
-      <c r="I12" s="156"/>
-      <c r="J12" s="156"/>
-      <c r="K12" s="188"/>
-      <c r="L12" s="175" t="s">
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139"/>
+      <c r="K12" s="171"/>
+      <c r="L12" s="158" t="s">
         <v>20</v>
       </c>
-      <c r="M12" s="176"/>
-      <c r="N12" s="176"/>
-      <c r="O12" s="177"/>
+      <c r="M12" s="159"/>
+      <c r="N12" s="159"/>
+      <c r="O12" s="160"/>
     </row>
     <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="14"/>
-      <c r="C13" s="153">
+      <c r="B13" s="10"/>
+      <c r="C13" s="136" t="str">
         <f>記入!B10</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="154"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="188"/>
-      <c r="L13" s="186">
+        <v>${award.pjnamejapanese}</v>
+      </c>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139"/>
+      <c r="K13" s="171"/>
+      <c r="L13" s="169" t="str">
         <f>記入!B20</f>
-        <v>0</v>
-      </c>
-      <c r="M13" s="187"/>
-      <c r="N13" s="172">
+        <v>${award.claimamount}</v>
+      </c>
+      <c r="M13" s="170"/>
+      <c r="N13" s="155" t="str">
         <f>記入!B19</f>
-        <v>0</v>
-      </c>
-      <c r="O13" s="173"/>
+        <v>${award.currencyposition}</v>
+      </c>
+      <c r="O13" s="156"/>
     </row>
     <row r="14" spans="2:15" ht="7.5" customHeight="1">
-      <c r="B14" s="146" t="s">
+      <c r="B14" s="129" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="22"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="15"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="26"/>
+      <c r="O14" s="11"/>
     </row>
     <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="146"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="27" t="s">
+      <c r="B15" s="129"/>
+      <c r="C15" s="18"/>
+      <c r="D15" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="13"/>
+    </row>
+    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="129"/>
+      <c r="C16" s="18"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="19" t="str">
+        <f>C10&amp;"は"</f>
+        <v>${award.deployment}は</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
+      <c r="J16" s="21"/>
+      <c r="K16" s="21"/>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="13"/>
+    </row>
+    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="129"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="19" t="str">
+        <f>記入!B10&amp;"において、外注開発経験活用・コストダウンのため"</f>
+        <v>${award.pjnamejapanese}において、外注開発経験活用・コストダウンのため</v>
+      </c>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+      <c r="L17" s="21"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="13"/>
+    </row>
+    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="129"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="10"/>
+      <c r="E18" s="19" t="str">
+        <f>"本プロジェクトの一部開発を"&amp; 記入!B2&amp;"へ委託するので、以下内容の通り委託個別契約書を締結する。"</f>
+        <v>本プロジェクトの一部開発を${award.custojapanese}へ委託するので、以下内容の通り委託個別契約書を締結する。</v>
+      </c>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+      <c r="L18" s="21"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="13"/>
+    </row>
+    <row r="19" spans="2:15" ht="6" customHeight="1">
+      <c r="B19" s="129"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="13"/>
+    </row>
+    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="129"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+      <c r="J20" s="21"/>
+      <c r="K20" s="21"/>
+      <c r="L20" s="21"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="13"/>
+    </row>
+    <row r="21" spans="2:15" ht="15" customHeight="1">
+      <c r="B21" s="129"/>
+      <c r="C21" s="18"/>
+      <c r="D21" s="143" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" s="143"/>
+      <c r="F21" s="161" t="str">
+        <f>記入!B2</f>
+        <v>${award.custojapanese}</v>
+      </c>
+      <c r="G21" s="161"/>
+      <c r="H21" s="161"/>
+      <c r="I21" s="161"/>
+      <c r="J21" s="161"/>
+      <c r="K21" s="161"/>
+      <c r="L21" s="161"/>
+      <c r="M21" s="161"/>
+      <c r="N21" s="161"/>
+      <c r="O21" s="13"/>
+    </row>
+    <row r="22" spans="2:15" ht="15" customHeight="1">
+      <c r="B22" s="129"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="143"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="161"/>
+      <c r="H22" s="161"/>
+      <c r="I22" s="161"/>
+      <c r="J22" s="161"/>
+      <c r="K22" s="161"/>
+      <c r="L22" s="161"/>
+      <c r="M22" s="161"/>
+      <c r="N22" s="161"/>
+      <c r="O22" s="13"/>
+    </row>
+    <row r="23" spans="2:15" ht="15" customHeight="1">
+      <c r="B23" s="129"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="143" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="28"/>
-      <c r="O15" s="17"/>
-    </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="146"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="23" t="str">
-        <f>C10&amp;"は"</f>
-        <v>0は</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="27"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="17"/>
-    </row>
-    <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="146"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="23" t="str">
-        <f>記入!B10&amp;"において、外注開発経験活用・コストダウンのため"</f>
-        <v>において、外注開発経験活用・コストダウンのため</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-      <c r="K17" s="27"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="27"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="17"/>
-    </row>
-    <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="146"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="23" t="str">
-        <f>"本プロジェクトの一部開発を"&amp; 記入!B2&amp;"へ委託するので、以下内容の通り委託個別契約書を締結する。"</f>
-        <v>本プロジェクトの一部開発をへ委託するので、以下内容の通り委託個別契約書を締結する。</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-      <c r="K18" s="27"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="27"/>
-      <c r="N18" s="28"/>
-      <c r="O18" s="17"/>
-    </row>
-    <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="146"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-      <c r="K19" s="27"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="27"/>
-      <c r="N19" s="28"/>
-      <c r="O19" s="17"/>
-    </row>
-    <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="146"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
-      <c r="K20" s="27"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="27"/>
-      <c r="N20" s="28"/>
-      <c r="O20" s="17"/>
-    </row>
-    <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="146"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="160" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="160"/>
-      <c r="F21" s="178">
-        <f>記入!B2</f>
-        <v>0</v>
-      </c>
-      <c r="G21" s="178"/>
-      <c r="H21" s="178"/>
-      <c r="I21" s="178"/>
-      <c r="J21" s="178"/>
-      <c r="K21" s="178"/>
-      <c r="L21" s="178"/>
-      <c r="M21" s="178"/>
-      <c r="N21" s="178"/>
-      <c r="O21" s="17"/>
-    </row>
-    <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="146"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="178"/>
-      <c r="O22" s="17"/>
-    </row>
-    <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="146"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="160" t="s">
+      <c r="E23" s="143"/>
+      <c r="F23" s="161" t="str">
+        <f>C13</f>
+        <v>${award.pjnamejapanese}</v>
+      </c>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="161"/>
+      <c r="L23" s="161"/>
+      <c r="M23" s="161"/>
+      <c r="N23" s="161"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="2:15" ht="15" customHeight="1">
+      <c r="B24" s="129"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="143"/>
+      <c r="E24" s="143"/>
+      <c r="F24" s="161"/>
+      <c r="G24" s="161"/>
+      <c r="H24" s="161"/>
+      <c r="I24" s="161"/>
+      <c r="J24" s="161"/>
+      <c r="K24" s="161"/>
+      <c r="L24" s="161"/>
+      <c r="M24" s="161"/>
+      <c r="N24" s="161"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" ht="15" customHeight="1">
+      <c r="B25" s="129"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="143" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="160"/>
-      <c r="F23" s="178">
-        <f>C13</f>
-        <v>0</v>
-      </c>
-      <c r="G23" s="178"/>
-      <c r="H23" s="178"/>
-      <c r="I23" s="178"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178"/>
-      <c r="O23" s="17"/>
-    </row>
-    <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="146"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="160"/>
-      <c r="E24" s="160"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="178"/>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="178"/>
-      <c r="N24" s="178"/>
-      <c r="O24" s="17"/>
-    </row>
-    <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="146"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="160" t="s">
+      <c r="E25" s="143"/>
+      <c r="F25" s="161" t="str">
+        <f>記入!B12</f>
+        <v>${award.user_id}</v>
+      </c>
+      <c r="G25" s="161"/>
+      <c r="H25" s="161"/>
+      <c r="I25" s="161"/>
+      <c r="J25" s="161"/>
+      <c r="K25" s="161"/>
+      <c r="L25" s="161"/>
+      <c r="M25" s="161"/>
+      <c r="N25" s="161"/>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" spans="2:15" ht="15" customHeight="1">
+      <c r="B26" s="129"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="143"/>
+      <c r="E26" s="143"/>
+      <c r="F26" s="161"/>
+      <c r="G26" s="161"/>
+      <c r="H26" s="161"/>
+      <c r="I26" s="161"/>
+      <c r="J26" s="161"/>
+      <c r="K26" s="161"/>
+      <c r="L26" s="161"/>
+      <c r="M26" s="161"/>
+      <c r="N26" s="161"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="2:15" ht="15" customHeight="1">
+      <c r="B27" s="129"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="144" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="144"/>
+      <c r="F27" s="164" t="str">
+        <f>記入!B14</f>
+        <v>${startTime)}</v>
+      </c>
+      <c r="G27" s="165"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="142" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="166" t="str">
+        <f>記入!B15</f>
+        <v>${endTime}</v>
+      </c>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="167"/>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="2:15" ht="15" customHeight="1">
+      <c r="B28" s="129"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="164"/>
+      <c r="G28" s="165"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="142"/>
+      <c r="J28" s="166"/>
+      <c r="K28" s="166"/>
+      <c r="L28" s="166"/>
+      <c r="M28" s="166"/>
+      <c r="N28" s="167"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="2:15" ht="24.75" customHeight="1">
+      <c r="B29" s="129"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="145" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="160"/>
-      <c r="F25" s="178">
-        <f>記入!B12</f>
-        <v>0</v>
-      </c>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="178"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="178"/>
-      <c r="O25" s="17"/>
-    </row>
-    <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="146"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="160"/>
-      <c r="E26" s="160"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="178"/>
-      <c r="M26" s="178"/>
-      <c r="N26" s="178"/>
-      <c r="O26" s="17"/>
-    </row>
-    <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="146"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="161" t="s">
+      <c r="E29" s="146"/>
+      <c r="F29" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="E27" s="161"/>
-      <c r="F27" s="181">
-        <f>記入!B14</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="182"/>
-      <c r="H27" s="182"/>
-      <c r="I27" s="159" t="s">
-        <v>89</v>
-      </c>
-      <c r="J27" s="183">
-        <f>記入!B15</f>
-        <v>0</v>
-      </c>
-      <c r="K27" s="183"/>
-      <c r="L27" s="183"/>
-      <c r="M27" s="183"/>
-      <c r="N27" s="184"/>
-      <c r="O27" s="17"/>
-    </row>
-    <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="146"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="181"/>
-      <c r="G28" s="182"/>
-      <c r="H28" s="182"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="183"/>
-      <c r="K28" s="183"/>
-      <c r="L28" s="183"/>
-      <c r="M28" s="183"/>
-      <c r="N28" s="184"/>
-      <c r="O28" s="17"/>
-    </row>
-    <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="146"/>
-      <c r="C29" s="22"/>
-      <c r="D29" s="162" t="s">
+      <c r="G29" s="146"/>
+      <c r="H29" s="185" t="s">
+        <v>55</v>
+      </c>
+      <c r="I29" s="174" t="s">
+        <v>61</v>
+      </c>
+      <c r="J29" s="175"/>
+      <c r="K29" s="187" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" s="146"/>
+      <c r="M29" s="145" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="163"/>
-      <c r="F29" s="162" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="163"/>
-      <c r="H29" s="202" t="s">
-        <v>56</v>
-      </c>
-      <c r="I29" s="191" t="s">
-        <v>62</v>
-      </c>
-      <c r="J29" s="192"/>
-      <c r="K29" s="204" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" s="163"/>
-      <c r="M29" s="162" t="s">
-        <v>53</v>
-      </c>
-      <c r="N29" s="163"/>
-      <c r="O29" s="17"/>
+      <c r="N29" s="146"/>
+      <c r="O29" s="13"/>
     </row>
     <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="146"/>
-      <c r="C30" s="22"/>
-      <c r="D30" s="164"/>
-      <c r="E30" s="165"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="167"/>
-      <c r="H30" s="203"/>
-      <c r="I30" s="36" t="s">
+      <c r="B30" s="129"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="147"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="149"/>
+      <c r="G30" s="150"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J30" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="J30" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="K30" s="166"/>
-      <c r="L30" s="167"/>
-      <c r="M30" s="179" t="str">
+      <c r="K30" s="149"/>
+      <c r="L30" s="150"/>
+      <c r="M30" s="162" t="str">
         <f>"(" &amp; 記入!B19 &amp; ")"</f>
-        <v>()</v>
-      </c>
-      <c r="N30" s="180"/>
-      <c r="O30" s="17"/>
+        <v>(${award.currencyposition})</v>
+      </c>
+      <c r="N30" s="163"/>
+      <c r="O30" s="13"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="146"/>
-      <c r="C31" s="22"/>
-      <c r="D31" s="164"/>
-      <c r="E31" s="165"/>
-      <c r="F31" s="178">
+      <c r="B31" s="129"/>
+      <c r="C31" s="18"/>
+      <c r="D31" s="147"/>
+      <c r="E31" s="148"/>
+      <c r="F31" s="161">
         <f>記入!A44</f>
         <v>0</v>
       </c>
-      <c r="G31" s="178"/>
-      <c r="H31" s="42">
+      <c r="G31" s="161"/>
+      <c r="H31" s="36">
         <f>記入!B44</f>
         <v>0</v>
       </c>
-      <c r="I31" s="42">
+      <c r="I31" s="36">
         <f>記入!C44</f>
         <v>0</v>
       </c>
-      <c r="J31" s="42">
+      <c r="J31" s="36">
         <f>記入!E44</f>
         <v>0</v>
       </c>
-      <c r="K31" s="193">
+      <c r="K31" s="176">
         <f>記入!G44</f>
         <v>0</v>
       </c>
-      <c r="L31" s="194"/>
-      <c r="M31" s="171">
+      <c r="L31" s="177"/>
+      <c r="M31" s="154">
         <f>記入!H44</f>
         <v>0</v>
       </c>
-      <c r="N31" s="171"/>
-      <c r="O31" s="17"/>
+      <c r="N31" s="154"/>
+      <c r="O31" s="13"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="146"/>
-      <c r="C32" s="22"/>
-      <c r="D32" s="164"/>
-      <c r="E32" s="165"/>
-      <c r="F32" s="178">
+      <c r="B32" s="129"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="161">
         <f>記入!A45</f>
         <v>0</v>
       </c>
-      <c r="G32" s="178"/>
-      <c r="H32" s="42">
+      <c r="G32" s="161"/>
+      <c r="H32" s="36">
         <f>記入!B45</f>
         <v>0</v>
       </c>
-      <c r="I32" s="42">
+      <c r="I32" s="36">
         <f>記入!C45</f>
         <v>0</v>
       </c>
-      <c r="J32" s="42">
+      <c r="J32" s="36">
         <f>記入!E45</f>
         <v>0</v>
       </c>
-      <c r="K32" s="195"/>
-      <c r="L32" s="196"/>
-      <c r="M32" s="171">
+      <c r="K32" s="178"/>
+      <c r="L32" s="179"/>
+      <c r="M32" s="154">
         <f>記入!H45</f>
         <v>0</v>
       </c>
-      <c r="N32" s="171"/>
-      <c r="O32" s="17"/>
+      <c r="N32" s="154"/>
+      <c r="O32" s="13"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="146"/>
-      <c r="C33" s="22"/>
-      <c r="D33" s="164"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="178">
+      <c r="B33" s="129"/>
+      <c r="C33" s="18"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="161">
         <f>記入!A46</f>
         <v>0</v>
       </c>
-      <c r="G33" s="178"/>
-      <c r="H33" s="42">
+      <c r="G33" s="161"/>
+      <c r="H33" s="36">
         <f>記入!B46</f>
         <v>0</v>
       </c>
-      <c r="I33" s="42">
+      <c r="I33" s="36">
         <f>記入!C46</f>
         <v>0</v>
       </c>
-      <c r="J33" s="42">
+      <c r="J33" s="36">
         <f>記入!E46</f>
         <v>0</v>
       </c>
-      <c r="K33" s="195"/>
-      <c r="L33" s="196"/>
-      <c r="M33" s="171">
+      <c r="K33" s="178"/>
+      <c r="L33" s="179"/>
+      <c r="M33" s="154">
         <f>記入!H46</f>
         <v>0</v>
       </c>
-      <c r="N33" s="171"/>
-      <c r="O33" s="17"/>
+      <c r="N33" s="154"/>
+      <c r="O33" s="13"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="146"/>
-      <c r="C34" s="22"/>
-      <c r="D34" s="164"/>
-      <c r="E34" s="165"/>
-      <c r="F34" s="178">
+      <c r="B34" s="129"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="161">
         <f>記入!A47</f>
         <v>0</v>
       </c>
-      <c r="G34" s="178"/>
-      <c r="H34" s="42">
+      <c r="G34" s="161"/>
+      <c r="H34" s="36">
         <f>記入!B47</f>
         <v>0</v>
       </c>
-      <c r="I34" s="42">
+      <c r="I34" s="36">
         <f>記入!C47</f>
         <v>0</v>
       </c>
-      <c r="J34" s="42">
+      <c r="J34" s="36">
         <f>記入!E47</f>
         <v>0</v>
       </c>
-      <c r="K34" s="197"/>
-      <c r="L34" s="198"/>
-      <c r="M34" s="171">
+      <c r="K34" s="180"/>
+      <c r="L34" s="181"/>
+      <c r="M34" s="154">
         <f>記入!H47</f>
         <v>0</v>
       </c>
-      <c r="N34" s="171"/>
-      <c r="O34" s="17"/>
+      <c r="N34" s="154"/>
+      <c r="O34" s="13"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="146"/>
-      <c r="C35" s="22"/>
-      <c r="D35" s="164"/>
-      <c r="E35" s="165"/>
-      <c r="F35" s="178">
+      <c r="B35" s="129"/>
+      <c r="C35" s="18"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="161">
         <f>記入!A48</f>
         <v>0</v>
       </c>
-      <c r="G35" s="178"/>
-      <c r="H35" s="42">
+      <c r="G35" s="161"/>
+      <c r="H35" s="36">
         <f>記入!B48</f>
         <v>0</v>
       </c>
-      <c r="I35" s="42">
+      <c r="I35" s="36">
         <f>記入!C48</f>
         <v>0</v>
       </c>
-      <c r="J35" s="42">
+      <c r="J35" s="36">
         <f>記入!E48</f>
         <v>0</v>
       </c>
-      <c r="K35" s="178">
+      <c r="K35" s="161">
         <f>記入!G48</f>
         <v>0</v>
       </c>
-      <c r="L35" s="178"/>
-      <c r="M35" s="171">
+      <c r="L35" s="161"/>
+      <c r="M35" s="154">
         <f>記入!H48</f>
         <v>0</v>
       </c>
-      <c r="N35" s="171"/>
-      <c r="O35" s="17"/>
+      <c r="N35" s="154"/>
+      <c r="O35" s="13"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="146"/>
-      <c r="C36" s="22"/>
-      <c r="D36" s="166"/>
-      <c r="E36" s="167"/>
-      <c r="F36" s="160" t="s">
-        <v>58</v>
-      </c>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="36" t="s">
-        <v>81</v>
-      </c>
-      <c r="J36" s="36">
+      <c r="B36" s="129"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="150"/>
+      <c r="F36" s="143" t="s">
+        <v>57</v>
+      </c>
+      <c r="G36" s="143"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="30">
         <f>SUM(J31:J35)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="160">
+      <c r="K36" s="143">
         <f>SUM(K31:L35)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="160"/>
-      <c r="M36" s="174">
+      <c r="L36" s="143"/>
+      <c r="M36" s="157">
         <f>SUM(M31:N35)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="174"/>
-      <c r="O36" s="17"/>
+      <c r="N36" s="157"/>
+      <c r="O36" s="13"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="146"/>
-      <c r="C37" s="22"/>
-      <c r="D37" s="161" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="161"/>
-      <c r="F37" s="191" t="s">
-        <v>105</v>
-      </c>
-      <c r="G37" s="199"/>
-      <c r="H37" s="199"/>
-      <c r="I37" s="192"/>
-      <c r="J37" s="161" t="str">
+      <c r="B37" s="129"/>
+      <c r="C37" s="18"/>
+      <c r="D37" s="144" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="144"/>
+      <c r="F37" s="174" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="182"/>
+      <c r="H37" s="182"/>
+      <c r="I37" s="175"/>
+      <c r="J37" s="144" t="str">
         <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
-        <v>請求金額()</v>
-      </c>
-      <c r="K37" s="161"/>
-      <c r="L37" s="161"/>
-      <c r="M37" s="161"/>
-      <c r="N37" s="161"/>
-      <c r="O37" s="17"/>
+        <v>請求金額(${award.currencyposition})</v>
+      </c>
+      <c r="K37" s="144"/>
+      <c r="L37" s="144"/>
+      <c r="M37" s="144"/>
+      <c r="N37" s="144"/>
+      <c r="O37" s="13"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="146"/>
-      <c r="C38" s="22"/>
-      <c r="D38" s="160" t="str">
+      <c r="B38" s="129"/>
+      <c r="C38" s="18"/>
+      <c r="D38" s="143" t="str">
         <f>記入!A29</f>
         <v/>
       </c>
-      <c r="E38" s="160"/>
-      <c r="F38" s="200" t="str">
+      <c r="E38" s="143"/>
+      <c r="F38" s="183" t="str">
         <f>IF(記入!E29="","",記入!E29)</f>
         <v/>
       </c>
-      <c r="G38" s="159"/>
-      <c r="H38" s="159"/>
-      <c r="I38" s="201"/>
-      <c r="J38" s="171" t="str">
+      <c r="G38" s="142"/>
+      <c r="H38" s="142"/>
+      <c r="I38" s="184"/>
+      <c r="J38" s="154" t="str">
         <f>IF(記入!F29="","",記入!F29)</f>
         <v/>
       </c>
-      <c r="K38" s="171"/>
-      <c r="L38" s="171"/>
-      <c r="M38" s="171"/>
-      <c r="N38" s="171"/>
-      <c r="O38" s="17"/>
+      <c r="K38" s="154"/>
+      <c r="L38" s="154"/>
+      <c r="M38" s="154"/>
+      <c r="N38" s="154"/>
+      <c r="O38" s="13"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="146"/>
-      <c r="C39" s="22"/>
-      <c r="D39" s="160" t="str">
+      <c r="B39" s="129"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="143" t="str">
         <f>記入!A30</f>
         <v/>
       </c>
-      <c r="E39" s="160"/>
-      <c r="F39" s="200" t="str">
+      <c r="E39" s="143"/>
+      <c r="F39" s="183" t="str">
         <f>IF(記入!E30="","",記入!E30)</f>
         <v/>
       </c>
-      <c r="G39" s="159"/>
-      <c r="H39" s="159"/>
-      <c r="I39" s="201"/>
-      <c r="J39" s="171" t="str">
+      <c r="G39" s="142"/>
+      <c r="H39" s="142"/>
+      <c r="I39" s="184"/>
+      <c r="J39" s="154" t="str">
         <f>IF(記入!F30="","",記入!F30)</f>
         <v/>
       </c>
-      <c r="K39" s="171"/>
-      <c r="L39" s="171"/>
-      <c r="M39" s="171"/>
-      <c r="N39" s="171"/>
-      <c r="O39" s="17"/>
+      <c r="K39" s="154"/>
+      <c r="L39" s="154"/>
+      <c r="M39" s="154"/>
+      <c r="N39" s="154"/>
+      <c r="O39" s="13"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="146"/>
-      <c r="C40" s="22"/>
-      <c r="D40" s="160" t="str">
+      <c r="B40" s="129"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="143" t="str">
         <f>記入!A31</f>
         <v/>
       </c>
-      <c r="E40" s="160"/>
-      <c r="F40" s="200" t="str">
+      <c r="E40" s="143"/>
+      <c r="F40" s="183" t="str">
         <f>IF(記入!E31="","",記入!E31)</f>
         <v/>
       </c>
-      <c r="G40" s="159"/>
-      <c r="H40" s="159"/>
-      <c r="I40" s="201"/>
-      <c r="J40" s="171" t="str">
+      <c r="G40" s="142"/>
+      <c r="H40" s="142"/>
+      <c r="I40" s="184"/>
+      <c r="J40" s="154" t="str">
         <f>IF(記入!F31="","",記入!F31)</f>
         <v/>
       </c>
-      <c r="K40" s="171"/>
-      <c r="L40" s="171"/>
-      <c r="M40" s="171"/>
-      <c r="N40" s="171"/>
-      <c r="O40" s="17"/>
+      <c r="K40" s="154"/>
+      <c r="L40" s="154"/>
+      <c r="M40" s="154"/>
+      <c r="N40" s="154"/>
+      <c r="O40" s="13"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="146"/>
-      <c r="C41" s="22"/>
-      <c r="D41" s="160" t="str">
+      <c r="B41" s="129"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="143" t="str">
         <f>記入!A32</f>
         <v/>
       </c>
-      <c r="E41" s="160"/>
-      <c r="F41" s="200" t="str">
+      <c r="E41" s="143"/>
+      <c r="F41" s="183" t="str">
         <f>IF(記入!E32="","",記入!E32)</f>
         <v/>
       </c>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
-      <c r="I41" s="201"/>
-      <c r="J41" s="171" t="str">
+      <c r="G41" s="142"/>
+      <c r="H41" s="142"/>
+      <c r="I41" s="184"/>
+      <c r="J41" s="154" t="str">
         <f>IF(記入!F32="","",記入!F32)</f>
         <v/>
       </c>
-      <c r="K41" s="171"/>
-      <c r="L41" s="171"/>
-      <c r="M41" s="171"/>
-      <c r="N41" s="171"/>
-      <c r="O41" s="17"/>
+      <c r="K41" s="154"/>
+      <c r="L41" s="154"/>
+      <c r="M41" s="154"/>
+      <c r="N41" s="154"/>
+      <c r="O41" s="13"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="146"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="168">
+      <c r="B42" s="129"/>
+      <c r="C42" s="18"/>
+      <c r="D42" s="21"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="I42" s="21"/>
+      <c r="J42" s="151">
         <f>SUM(J38:N41)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="169"/>
-      <c r="L42" s="169"/>
-      <c r="M42" s="169"/>
-      <c r="N42" s="170"/>
-      <c r="O42" s="17"/>
+      <c r="K42" s="152"/>
+      <c r="L42" s="152"/>
+      <c r="M42" s="152"/>
+      <c r="N42" s="153"/>
+      <c r="O42" s="13"/>
     </row>
     <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="146"/>
-      <c r="C43" s="22"/>
-      <c r="D43" s="28" t="s">
+      <c r="B43" s="129"/>
+      <c r="C43" s="18"/>
+      <c r="D43" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="28"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="28"/>
-      <c r="J43" s="27"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="27"/>
-      <c r="M43" s="27"/>
-      <c r="N43" s="28"/>
-      <c r="O43" s="17"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="21"/>
+      <c r="H43" s="21"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="21"/>
+      <c r="K43" s="21"/>
+      <c r="L43" s="21"/>
+      <c r="M43" s="21"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="13"/>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="146"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="28"/>
-      <c r="E44" s="138" t="s">
+      <c r="B44" s="129"/>
+      <c r="C44" s="18"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="121" t="s">
+        <v>46</v>
+      </c>
+      <c r="F44" s="121"/>
+      <c r="G44" s="16" t="str">
+        <f>記入!B40</f>
+        <v>${award.valuation}</v>
+      </c>
+      <c r="H44" s="21"/>
+      <c r="I44" s="21"/>
+      <c r="J44" s="21"/>
+      <c r="K44" s="21"/>
+      <c r="L44" s="21"/>
+      <c r="M44" s="21"/>
+      <c r="N44" s="22"/>
+      <c r="O44" s="13"/>
+    </row>
+    <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="B45" s="129"/>
+      <c r="C45" s="18"/>
+      <c r="D45" s="22"/>
+      <c r="E45" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="F44" s="138"/>
-      <c r="G44" s="20">
-        <f>記入!B40</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="27"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="27"/>
-      <c r="M44" s="27"/>
-      <c r="N44" s="28"/>
-      <c r="O44" s="17"/>
-    </row>
-    <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="146"/>
-      <c r="C45" s="22"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="138" t="s">
-        <v>48</v>
-      </c>
-      <c r="F45" s="138"/>
-      <c r="G45" s="20">
+      <c r="F45" s="121"/>
+      <c r="G45" s="16" t="str">
         <f>記入!B41</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-      <c r="N45" s="28"/>
-      <c r="O45" s="17"/>
+        <v>${award.individual}</v>
+      </c>
+      <c r="H45" s="21"/>
+      <c r="I45" s="21"/>
+      <c r="J45" s="21"/>
+      <c r="K45" s="21"/>
+      <c r="L45" s="21"/>
+      <c r="M45" s="21"/>
+      <c r="N45" s="22"/>
+      <c r="O45" s="13"/>
     </row>
     <row r="46" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B46" s="146"/>
-      <c r="C46" s="22"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="27"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="27"/>
-      <c r="M46" s="27"/>
-      <c r="N46" s="28"/>
-      <c r="O46" s="17"/>
+      <c r="B46" s="129"/>
+      <c r="C46" s="18"/>
+      <c r="D46" s="22"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="21"/>
+      <c r="H46" s="21"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="21"/>
+      <c r="K46" s="21"/>
+      <c r="L46" s="21"/>
+      <c r="M46" s="21"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="13"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="146"/>
-      <c r="C47" s="22"/>
-      <c r="D47" s="28" t="s">
+      <c r="B47" s="129"/>
+      <c r="C47" s="18"/>
+      <c r="D47" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="93" t="e">
+        <f>記入!#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="H47" s="93"/>
+      <c r="I47" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="E47" s="55"/>
-      <c r="F47" s="55"/>
-      <c r="G47" s="110">
-        <f>記入!E35</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="110"/>
-      <c r="I47" s="110" t="s">
-        <v>83</v>
-      </c>
-      <c r="J47" s="110"/>
-      <c r="K47" s="110"/>
-      <c r="L47" s="110"/>
-      <c r="M47" s="110"/>
-      <c r="N47" s="110"/>
-      <c r="O47" s="17"/>
+      <c r="J47" s="93"/>
+      <c r="K47" s="93"/>
+      <c r="L47" s="93"/>
+      <c r="M47" s="93"/>
+      <c r="N47" s="93"/>
+      <c r="O47" s="13"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="146"/>
-      <c r="C48" s="22"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="110" t="s">
+      <c r="B48" s="129"/>
+      <c r="C48" s="18"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="45"/>
+      <c r="F48" s="45"/>
+      <c r="G48" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="93"/>
+      <c r="I48" s="100" t="e">
+        <f>IF(G47="有",記入!B7,"-")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J48" s="101"/>
+      <c r="K48" s="101"/>
+      <c r="L48" s="101"/>
+      <c r="M48" s="101"/>
+      <c r="N48" s="102"/>
+      <c r="O48" s="13"/>
+    </row>
+    <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
+      <c r="B49" s="129"/>
+      <c r="C49" s="18"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+      <c r="G49" s="95" t="s">
+        <v>87</v>
+      </c>
+      <c r="H49" s="96"/>
+      <c r="I49" s="97" t="e">
+        <f>IF(G47="有",F27,"-")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J49" s="98"/>
+      <c r="K49" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="L49" s="99" t="e">
+        <f>IF(G47="有",J27,"-")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="M49" s="98"/>
+      <c r="N49" s="96"/>
+      <c r="O49" s="13"/>
+      <c r="R49" s="49"/>
+    </row>
+    <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="129"/>
+      <c r="C50" s="18"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+      <c r="G50" s="93" t="s">
+        <v>90</v>
+      </c>
+      <c r="H50" s="93"/>
+      <c r="I50" s="94" t="e">
+        <f>IF(G47="有",記入!E36,"-")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J50" s="94"/>
+      <c r="K50" s="94"/>
+      <c r="L50" s="94"/>
+      <c r="M50" s="94"/>
+      <c r="N50" s="94"/>
+      <c r="O50" s="13"/>
+      <c r="R50" s="49"/>
+    </row>
+    <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
+      <c r="B51" s="129"/>
+      <c r="C51" s="18"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="45"/>
+      <c r="F51" s="45"/>
+      <c r="G51" s="93" t="s">
+        <v>92</v>
+      </c>
+      <c r="H51" s="93"/>
+      <c r="I51" s="94" t="e">
+        <f>IF(G47="有",記入!E35&amp;記入!E38,"-")</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J51" s="94"/>
+      <c r="K51" s="94"/>
+      <c r="L51" s="94"/>
+      <c r="M51" s="94"/>
+      <c r="N51" s="94"/>
+      <c r="O51" s="13"/>
+      <c r="R51" s="50"/>
+    </row>
+    <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
+      <c r="B52" s="129"/>
+      <c r="C52" s="18"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+      <c r="G52" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="H48" s="110"/>
-      <c r="I48" s="117" t="str">
-        <f>IF(G47="有",記入!B7,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="J48" s="118"/>
-      <c r="K48" s="118"/>
-      <c r="L48" s="118"/>
-      <c r="M48" s="118"/>
-      <c r="N48" s="119"/>
-      <c r="O48" s="17"/>
-    </row>
-    <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="146"/>
-      <c r="C49" s="22"/>
-      <c r="D49" s="28"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="G49" s="112" t="s">
-        <v>88</v>
-      </c>
-      <c r="H49" s="113"/>
-      <c r="I49" s="114" t="str">
-        <f>IF(G47="有",F27,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="J49" s="115"/>
-      <c r="K49" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="L49" s="116" t="str">
-        <f>IF(G47="有",J27,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="M49" s="115"/>
-      <c r="N49" s="113"/>
-      <c r="O49" s="17"/>
-      <c r="R49" s="59"/>
-    </row>
-    <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="146"/>
-      <c r="C50" s="22"/>
-      <c r="D50" s="28"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="110" t="s">
-        <v>91</v>
-      </c>
-      <c r="H50" s="110"/>
-      <c r="I50" s="111" t="str">
-        <f>IF(G47="有",記入!E36,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="111"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="17"/>
-      <c r="R50" s="59"/>
-    </row>
-    <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="146"/>
-      <c r="C51" s="22"/>
-      <c r="D51" s="28"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="55"/>
-      <c r="G51" s="110" t="s">
-        <v>93</v>
-      </c>
-      <c r="H51" s="110"/>
-      <c r="I51" s="111" t="str">
-        <f>IF(G47="有",記入!E37&amp;記入!E38,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="J51" s="111"/>
-      <c r="K51" s="111"/>
-      <c r="L51" s="111"/>
-      <c r="M51" s="111"/>
-      <c r="N51" s="111"/>
-      <c r="O51" s="17"/>
-      <c r="R51" s="60"/>
-    </row>
-    <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="146"/>
-      <c r="C52" s="22"/>
-      <c r="D52" s="28"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="59" t="s">
+      <c r="H52" s="48"/>
+      <c r="I52" s="48"/>
+      <c r="J52" s="48"/>
+      <c r="K52" s="48"/>
+      <c r="L52" s="48"/>
+      <c r="M52" s="48"/>
+      <c r="N52" s="48"/>
+      <c r="O52" s="13"/>
+      <c r="R52" s="50"/>
+    </row>
+    <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
+      <c r="B53" s="129"/>
+      <c r="C53" s="18"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="45"/>
+      <c r="F53" s="45"/>
+      <c r="G53" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="H52" s="58"/>
-      <c r="I52" s="58"/>
-      <c r="J52" s="58"/>
-      <c r="K52" s="58"/>
-      <c r="L52" s="58"/>
-      <c r="M52" s="58"/>
-      <c r="N52" s="58"/>
-      <c r="O52" s="17"/>
-      <c r="R52" s="60"/>
-    </row>
-    <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="146"/>
-      <c r="C53" s="22"/>
-      <c r="D53" s="28"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="G53" s="59" t="s">
-        <v>87</v>
-      </c>
-      <c r="H53" s="58"/>
-      <c r="I53" s="58"/>
-      <c r="J53" s="58"/>
-      <c r="K53" s="58"/>
-      <c r="L53" s="58"/>
-      <c r="M53" s="58"/>
-      <c r="N53" s="58"/>
-      <c r="O53" s="17"/>
-      <c r="R53" s="60"/>
+      <c r="H53" s="48"/>
+      <c r="I53" s="48"/>
+      <c r="J53" s="48"/>
+      <c r="K53" s="48"/>
+      <c r="L53" s="48"/>
+      <c r="M53" s="48"/>
+      <c r="N53" s="48"/>
+      <c r="O53" s="13"/>
+      <c r="R53" s="50"/>
     </row>
     <row r="54" spans="2:18" ht="9" customHeight="1">
-      <c r="B54" s="146"/>
-      <c r="C54" s="22"/>
-      <c r="D54" s="28"/>
-      <c r="E54" s="63"/>
-      <c r="F54" s="63"/>
-      <c r="G54" s="59"/>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
-      <c r="J54" s="58"/>
-      <c r="K54" s="58"/>
-      <c r="L54" s="58"/>
-      <c r="M54" s="58"/>
-      <c r="N54" s="58"/>
-      <c r="O54" s="17"/>
-      <c r="R54" s="60"/>
+      <c r="B54" s="129"/>
+      <c r="C54" s="18"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="49"/>
+      <c r="H54" s="48"/>
+      <c r="I54" s="48"/>
+      <c r="J54" s="48"/>
+      <c r="K54" s="48"/>
+      <c r="L54" s="48"/>
+      <c r="M54" s="48"/>
+      <c r="N54" s="48"/>
+      <c r="O54" s="13"/>
+      <c r="R54" s="50"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="146"/>
-      <c r="C55" s="22"/>
-      <c r="D55" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="63"/>
-      <c r="F55" s="108">
+      <c r="B55" s="129"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="52"/>
+      <c r="F55" s="91" t="str">
         <f>記入!E39</f>
-        <v>0</v>
-      </c>
-      <c r="G55" s="108"/>
-      <c r="H55" s="108"/>
-      <c r="I55" s="108"/>
-      <c r="J55" s="108"/>
-      <c r="K55" s="108"/>
-      <c r="L55" s="108"/>
-      <c r="M55" s="108"/>
-      <c r="N55" s="108"/>
-      <c r="O55" s="17"/>
-      <c r="R55" s="60"/>
+        <v>${award.remarks}</v>
+      </c>
+      <c r="G55" s="91"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="91"/>
+      <c r="K55" s="91"/>
+      <c r="L55" s="91"/>
+      <c r="M55" s="91"/>
+      <c r="N55" s="91"/>
+      <c r="O55" s="13"/>
+      <c r="R55" s="50"/>
     </row>
     <row r="56" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B56" s="146"/>
-      <c r="C56" s="22"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="64"/>
-      <c r="F56" s="109"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
-      <c r="J56" s="109"/>
-      <c r="K56" s="109"/>
-      <c r="L56" s="109"/>
-      <c r="M56" s="109"/>
-      <c r="N56" s="109"/>
-      <c r="O56" s="17"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="22"/>
+      <c r="E56" s="53"/>
+      <c r="F56" s="92"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="92"/>
+      <c r="J56" s="92"/>
+      <c r="K56" s="92"/>
+      <c r="L56" s="92"/>
+      <c r="M56" s="92"/>
+      <c r="N56" s="92"/>
+      <c r="O56" s="13"/>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="146"/>
-      <c r="C57" s="158" t="s">
+      <c r="B57" s="129"/>
+      <c r="C57" s="141" t="s">
         <v>35</v>
       </c>
-      <c r="D57" s="158"/>
-      <c r="E57" s="158"/>
-      <c r="F57" s="158" t="s">
+      <c r="D57" s="141"/>
+      <c r="E57" s="141"/>
+      <c r="F57" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="G57" s="158"/>
-      <c r="H57" s="158" t="s">
+      <c r="G57" s="141"/>
+      <c r="H57" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="I57" s="158"/>
-      <c r="J57" s="158" t="s">
+      <c r="I57" s="141"/>
+      <c r="J57" s="141" t="s">
         <v>33</v>
       </c>
-      <c r="K57" s="158"/>
-      <c r="L57" s="158"/>
-      <c r="M57" s="158" t="s">
+      <c r="K57" s="141"/>
+      <c r="L57" s="141"/>
+      <c r="M57" s="141" t="s">
         <v>34</v>
       </c>
-      <c r="N57" s="158"/>
-      <c r="O57" s="158"/>
+      <c r="N57" s="141"/>
+      <c r="O57" s="141"/>
     </row>
     <row r="58" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="146"/>
-      <c r="C58" s="158"/>
-      <c r="D58" s="158"/>
-      <c r="E58" s="158"/>
-      <c r="F58" s="157"/>
-      <c r="G58" s="157"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="157"/>
-      <c r="J58" s="157"/>
-      <c r="K58" s="157"/>
-      <c r="L58" s="157"/>
-      <c r="M58" s="157"/>
-      <c r="N58" s="157"/>
-      <c r="O58" s="157"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="141"/>
+      <c r="D58" s="141"/>
+      <c r="E58" s="141"/>
+      <c r="F58" s="140"/>
+      <c r="G58" s="140"/>
+      <c r="H58" s="140"/>
+      <c r="I58" s="140"/>
+      <c r="J58" s="140"/>
+      <c r="K58" s="140"/>
+      <c r="L58" s="140"/>
+      <c r="M58" s="140"/>
+      <c r="N58" s="140"/>
+      <c r="O58" s="140"/>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="146"/>
-      <c r="C59" s="158"/>
-      <c r="D59" s="158"/>
-      <c r="E59" s="158"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="157"/>
-      <c r="I59" s="157"/>
-      <c r="J59" s="157"/>
-      <c r="K59" s="157"/>
-      <c r="L59" s="157"/>
-      <c r="M59" s="157"/>
-      <c r="N59" s="157"/>
-      <c r="O59" s="157"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="141"/>
+      <c r="D59" s="141"/>
+      <c r="E59" s="141"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="140"/>
+      <c r="M59" s="140"/>
+      <c r="N59" s="140"/>
+      <c r="O59" s="140"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="146"/>
-      <c r="C60" s="158"/>
-      <c r="D60" s="158"/>
-      <c r="E60" s="158"/>
-      <c r="F60" s="157"/>
-      <c r="G60" s="157"/>
-      <c r="H60" s="157"/>
-      <c r="I60" s="157"/>
-      <c r="J60" s="157"/>
-      <c r="K60" s="157"/>
-      <c r="L60" s="157"/>
-      <c r="M60" s="157"/>
-      <c r="N60" s="157"/>
-      <c r="O60" s="157"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="141"/>
+      <c r="D60" s="141"/>
+      <c r="E60" s="141"/>
+      <c r="F60" s="140"/>
+      <c r="G60" s="140"/>
+      <c r="H60" s="140"/>
+      <c r="I60" s="140"/>
+      <c r="J60" s="140"/>
+      <c r="K60" s="140"/>
+      <c r="L60" s="140"/>
+      <c r="M60" s="140"/>
+      <c r="N60" s="140"/>
+      <c r="O60" s="140"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="146"/>
-      <c r="C61" s="158"/>
-      <c r="D61" s="158"/>
-      <c r="E61" s="158"/>
-      <c r="F61" s="157"/>
-      <c r="G61" s="157"/>
-      <c r="H61" s="157"/>
-      <c r="I61" s="157"/>
-      <c r="J61" s="157"/>
-      <c r="K61" s="157"/>
-      <c r="L61" s="157"/>
-      <c r="M61" s="157"/>
-      <c r="N61" s="157"/>
-      <c r="O61" s="157"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="141"/>
+      <c r="D61" s="141"/>
+      <c r="E61" s="141"/>
+      <c r="F61" s="140"/>
+      <c r="G61" s="140"/>
+      <c r="H61" s="140"/>
+      <c r="I61" s="140"/>
+      <c r="J61" s="140"/>
+      <c r="K61" s="140"/>
+      <c r="L61" s="140"/>
+      <c r="M61" s="140"/>
+      <c r="N61" s="140"/>
+      <c r="O61" s="140"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="146"/>
-      <c r="C62" s="158"/>
-      <c r="D62" s="158"/>
-      <c r="E62" s="158"/>
-      <c r="F62" s="157"/>
-      <c r="G62" s="157"/>
-      <c r="H62" s="157"/>
-      <c r="I62" s="157"/>
-      <c r="J62" s="157"/>
-      <c r="K62" s="157"/>
-      <c r="L62" s="157"/>
-      <c r="M62" s="157"/>
-      <c r="N62" s="157"/>
-      <c r="O62" s="157"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="141"/>
+      <c r="D62" s="141"/>
+      <c r="E62" s="141"/>
+      <c r="F62" s="140"/>
+      <c r="G62" s="140"/>
+      <c r="H62" s="140"/>
+      <c r="I62" s="140"/>
+      <c r="J62" s="140"/>
+      <c r="K62" s="140"/>
+      <c r="L62" s="140"/>
+      <c r="M62" s="140"/>
+      <c r="N62" s="140"/>
+      <c r="O62" s="140"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="146"/>
-      <c r="C63" s="158"/>
-      <c r="D63" s="158"/>
-      <c r="E63" s="158"/>
-      <c r="F63" s="157"/>
-      <c r="G63" s="157"/>
-      <c r="H63" s="157"/>
-      <c r="I63" s="157"/>
-      <c r="J63" s="157"/>
-      <c r="K63" s="157"/>
-      <c r="L63" s="157"/>
-      <c r="M63" s="157"/>
-      <c r="N63" s="157"/>
-      <c r="O63" s="157"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="141"/>
+      <c r="D63" s="141"/>
+      <c r="E63" s="141"/>
+      <c r="F63" s="140"/>
+      <c r="G63" s="140"/>
+      <c r="H63" s="140"/>
+      <c r="I63" s="140"/>
+      <c r="J63" s="140"/>
+      <c r="K63" s="140"/>
+      <c r="L63" s="140"/>
+      <c r="M63" s="140"/>
+      <c r="N63" s="140"/>
+      <c r="O63" s="140"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="146"/>
-      <c r="C64" s="158"/>
-      <c r="D64" s="158"/>
-      <c r="E64" s="158"/>
-      <c r="F64" s="157"/>
-      <c r="G64" s="157"/>
-      <c r="H64" s="157"/>
-      <c r="I64" s="157"/>
-      <c r="J64" s="157"/>
-      <c r="K64" s="157"/>
-      <c r="L64" s="157"/>
-      <c r="M64" s="157"/>
-      <c r="N64" s="157"/>
-      <c r="O64" s="157"/>
+      <c r="B64" s="129"/>
+      <c r="C64" s="141"/>
+      <c r="D64" s="141"/>
+      <c r="E64" s="141"/>
+      <c r="F64" s="140"/>
+      <c r="G64" s="140"/>
+      <c r="H64" s="140"/>
+      <c r="I64" s="140"/>
+      <c r="J64" s="140"/>
+      <c r="K64" s="140"/>
+      <c r="L64" s="140"/>
+      <c r="M64" s="140"/>
+      <c r="N64" s="140"/>
+      <c r="O64" s="140"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="146"/>
-      <c r="C65" s="158"/>
-      <c r="D65" s="158"/>
-      <c r="E65" s="158"/>
-      <c r="F65" s="157"/>
-      <c r="G65" s="157"/>
-      <c r="H65" s="157"/>
-      <c r="I65" s="157"/>
-      <c r="J65" s="157"/>
-      <c r="K65" s="157"/>
-      <c r="L65" s="157"/>
-      <c r="M65" s="157"/>
-      <c r="N65" s="157"/>
-      <c r="O65" s="157"/>
+      <c r="B65" s="129"/>
+      <c r="C65" s="141"/>
+      <c r="D65" s="141"/>
+      <c r="E65" s="141"/>
+      <c r="F65" s="140"/>
+      <c r="G65" s="140"/>
+      <c r="H65" s="140"/>
+      <c r="I65" s="140"/>
+      <c r="J65" s="140"/>
+      <c r="K65" s="140"/>
+      <c r="L65" s="140"/>
+      <c r="M65" s="140"/>
+      <c r="N65" s="140"/>
+      <c r="O65" s="140"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="146"/>
-      <c r="C66" s="158"/>
-      <c r="D66" s="158"/>
-      <c r="E66" s="158"/>
-      <c r="F66" s="157"/>
-      <c r="G66" s="157"/>
-      <c r="H66" s="157"/>
-      <c r="I66" s="157"/>
-      <c r="J66" s="157"/>
-      <c r="K66" s="157"/>
-      <c r="L66" s="157"/>
-      <c r="M66" s="157"/>
-      <c r="N66" s="157"/>
-      <c r="O66" s="157"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="141"/>
+      <c r="D66" s="141"/>
+      <c r="E66" s="141"/>
+      <c r="F66" s="140"/>
+      <c r="G66" s="140"/>
+      <c r="H66" s="140"/>
+      <c r="I66" s="140"/>
+      <c r="J66" s="140"/>
+      <c r="K66" s="140"/>
+      <c r="L66" s="140"/>
+      <c r="M66" s="140"/>
+      <c r="N66" s="140"/>
+      <c r="O66" s="140"/>
     </row>
     <row r="67" spans="2:15" ht="14.25">
-      <c r="C67" s="30" t="s">
+      <c r="C67" s="24" t="s">
         <v>19</v>
       </c>
     </row>

--- a/controller/src/main/resources/jxls_templates/decisionconsignment.xlsx
+++ b/controller/src/main/resources/jxls_templates/decisionconsignment.xlsx
@@ -9,12 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570"/>
+    <workbookView xWindow="12750" yWindow="60" windowWidth="15900" windowHeight="12405" tabRatio="570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="記入" sheetId="6" r:id="rId1"/>
-    <sheet name="決裁願" sheetId="8" r:id="rId2"/>
+    <sheet name="決裁願" sheetId="9" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">決裁願!$A$1:$P$67</definedName>
   </definedNames>
@@ -46,6 +49,30 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ADMIN</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ Ｐゴシック"/>
+            <family val="2"/>
+          </rPr>
+          <t>jx:area(lastCell="o67")</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="131">
   <si>
@@ -195,27 +222,11 @@
     <t>パナソニックソフトウェア開発センター大連（有）</t>
   </si>
   <si>
-    <t>実施予定金額</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>決裁条件</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>起案部門　　</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>件名</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>総括(GM)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>TL</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -330,19 +341,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>起案日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>実施予定日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>実施予定日</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>事業計画</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -380,10 +379,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>プロジェクト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>契約番号</t>
     <rPh sb="0" eb="2">
       <t>ケイヤク</t>
@@ -429,10 +424,6 @@
     <rPh sb="0" eb="2">
       <t>ブモン</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>納品No.</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -613,10 +604,6 @@
     <rPh sb="2" eb="3">
       <t>サキ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>－</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -775,123 +762,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>固定资产，进口设备等持出借给外注使用时按照公司的流程</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimSun"/>
-      </rPr>
-      <t>实施借出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="SimHei"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>申请，同时，双方保留借用书。</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>持出开</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>发</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>间</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>～</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>～</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>持出</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>设备</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>明</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>细</t>
-    </r>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1148,107 +1019,263 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>${award.custochinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>委託先略</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.placejapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.placechinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.deployment}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.pjnamejapanese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.pjnamechinese}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.currencyposition}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.claimamount}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${startTime)}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${endTime}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起案者</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.user_id}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.telephone}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.draftingdate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.SCHEDULEDDATE}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.plan}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.valuation}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.individual}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.extrinsic}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.equipment}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.commdepartment}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.commission}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.remarks}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>${award.deliverydate}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>${award.custojapanese}</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>${award.custochinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>委託先略</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.placejapanese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.placechinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.deployment}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.pjnamejapanese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.pjnamechinese}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.currencyposition}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.claimamount}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${startTime)}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${endTime}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>起案者</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.user_id}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.telephone}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.draftingdate}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.SCHEDULEDDATE}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.plan}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.valuation}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.individual}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.extrinsic}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.equipment}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.commdepartment}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.commission}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.remarks}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>${award.deliverydate}</t>
+    <r>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>固定资产，进口设备等持出借给外注使用时按照公司的流程</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimSun"/>
+      </rPr>
+      <t>实施借出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="SimHei"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>申请，同时，双方保留借用书。</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>持出</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>设备</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>细</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>持出开</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>发</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>期</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>间</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>納品No.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>－</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>～</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プロジェクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施予定金額</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>件名</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>事業計画</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TL</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>総括(GM)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実施予定日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>起案日</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1260,7 +1287,7 @@
     <numFmt numFmtId="176" formatCode="0.00_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1453,6 +1480,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="SimSun"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1746,7 +1780,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="195">
+  <cellXfs count="194">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1829,9 +1863,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1870,143 +1901,419 @@
     <xf numFmtId="177" fontId="18" fillId="5" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" textRotation="255"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="7" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="21" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2043,282 +2350,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" textRotation="255"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="11" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2339,6 +2370,40 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="記入"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="29">
+          <cell r="A29" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v/>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v/>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2631,8 +2696,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection sqref="A1:B1"/>
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2646,623 +2711,623 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="14.25" customHeight="1">
-      <c r="A1" s="80" t="s">
-        <v>77</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="G1" s="82" t="s">
-        <v>78</v>
-      </c>
-      <c r="H1" s="83"/>
+      <c r="A1" s="60" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="G1" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="64"/>
     </row>
     <row r="2" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A2" s="54" t="s">
-        <v>95</v>
+      <c r="A2" s="50" t="s">
+        <v>81</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="66"/>
     </row>
     <row r="3" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A3" s="55" t="s">
-        <v>96</v>
+      <c r="A3" s="51" t="s">
+        <v>82</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="84"/>
-      <c r="H3" s="85"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="66"/>
     </row>
     <row r="4" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A4" s="54" t="s">
-        <v>97</v>
+      <c r="A4" s="50" t="s">
+        <v>83</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="85"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="66"/>
     </row>
     <row r="5" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A5" s="54" t="s">
-        <v>107</v>
+      <c r="A5" s="50" t="s">
+        <v>92</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="85"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="66"/>
     </row>
     <row r="6" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A6" s="56" t="s">
-        <v>98</v>
+      <c r="A6" s="52" t="s">
+        <v>84</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G6" s="84"/>
-      <c r="H6" s="85"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
     </row>
     <row r="7" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A7" s="56" t="s">
-        <v>99</v>
+      <c r="A7" s="52" t="s">
+        <v>85</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="84"/>
-      <c r="H7" s="85"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
     </row>
     <row r="8" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A8" s="54" t="s">
+      <c r="A8" s="50" t="s">
         <v>8</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G8" s="84"/>
-      <c r="H8" s="85"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
     </row>
     <row r="9" spans="1:8" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A9" s="55" t="s">
-        <v>73</v>
+      <c r="A9" s="51" t="s">
+        <v>64</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="C9" s="8" t="s">
         <v>13</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="85"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
     </row>
     <row r="10" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="50" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="C10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G10" s="84"/>
-      <c r="H10" s="85"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="66"/>
     </row>
     <row r="11" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="50" t="s">
         <v>1</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="84"/>
-      <c r="H11" s="85"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="66"/>
     </row>
     <row r="12" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="50" t="s">
         <v>2</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G12" s="84"/>
-      <c r="H12" s="85"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="66"/>
     </row>
     <row r="13" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A13" s="54" t="s">
+      <c r="A13" s="50" t="s">
         <v>9</v>
       </c>
       <c r="B13" s="5"/>
       <c r="C13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="84"/>
-      <c r="H13" s="85"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="66"/>
     </row>
     <row r="14" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A14" s="54" t="s">
+      <c r="A14" s="50" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="84"/>
-      <c r="H14" s="85"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="66"/>
     </row>
     <row r="15" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A15" s="54" t="s">
+      <c r="A15" s="50" t="s">
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="C15" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="66"/>
     </row>
     <row r="16" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A16" s="54" t="s">
+      <c r="A16" s="50" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="5"/>
       <c r="C16" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="84"/>
-      <c r="H16" s="85"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="66"/>
     </row>
     <row r="17" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A17" s="54" t="s">
+      <c r="A17" s="50" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G17" s="84"/>
-      <c r="H17" s="85"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="66"/>
     </row>
     <row r="18" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A18" s="54" t="s">
-        <v>74</v>
+      <c r="A18" s="50" t="s">
+        <v>65</v>
       </c>
       <c r="B18" s="5"/>
       <c r="C18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="84"/>
-      <c r="H18" s="85"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="66"/>
     </row>
     <row r="19" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A19" s="54" t="s">
+      <c r="A19" s="50" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="85"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
     </row>
     <row r="20" spans="1:8" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="50" t="s">
         <v>7</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="84"/>
-      <c r="H20" s="85"/>
+      <c r="G20" s="65"/>
+      <c r="H20" s="66"/>
     </row>
     <row r="21" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A21" s="54" t="s">
-        <v>71</v>
+      <c r="A21" s="50" t="s">
+        <v>62</v>
       </c>
       <c r="B21" s="5"/>
       <c r="C21" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G21" s="84"/>
-      <c r="H21" s="85"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="66"/>
     </row>
     <row r="22" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A22" s="54" t="s">
-        <v>72</v>
+      <c r="A22" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="B22" s="5"/>
       <c r="C22" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="85"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="66"/>
     </row>
     <row r="23" spans="1:8" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A23" s="55" t="s">
-        <v>75</v>
+      <c r="A23" s="51" t="s">
+        <v>66</v>
       </c>
       <c r="B23" s="5"/>
       <c r="C23" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="85"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="66"/>
     </row>
     <row r="24" spans="1:8" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A24" s="55" t="s">
-        <v>76</v>
+      <c r="A24" s="51" t="s">
+        <v>67</v>
       </c>
       <c r="B24" s="5"/>
       <c r="C24" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G24" s="84"/>
-      <c r="H24" s="85"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="66"/>
     </row>
     <row r="25" spans="1:8" s="6" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="51" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="5"/>
       <c r="C25" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="85"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="66"/>
     </row>
     <row r="26" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A26" s="55" t="s">
+      <c r="A26" s="51" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="5"/>
       <c r="C26" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G26" s="84"/>
-      <c r="H26" s="85"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" ht="3" customHeight="1">
-      <c r="A27" s="57"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="1"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="85"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="66"/>
     </row>
     <row r="28" spans="1:8" ht="12.75" customHeight="1">
-      <c r="A28" s="58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B28" s="58" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="60" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="60" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="84"/>
-      <c r="H28" s="85"/>
+      <c r="A28" s="54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B28" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="56" t="s">
+        <v>57</v>
+      </c>
+      <c r="D28" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="56" t="s">
+        <v>59</v>
+      </c>
+      <c r="F28" s="56" t="s">
+        <v>60</v>
+      </c>
+      <c r="G28" s="65"/>
+      <c r="H28" s="66"/>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A29" s="59" t="str">
+      <c r="A29" s="55" t="str">
         <f>IF(B29="","","第一回")</f>
         <v/>
       </c>
-      <c r="B29" s="46"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="45"/>
+      <c r="D29" s="44"/>
+      <c r="E29" s="44"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="85"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="66"/>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A30" s="59" t="str">
+      <c r="A30" s="55" t="str">
         <f>IF(B30="","","第二回")</f>
         <v/>
       </c>
-      <c r="B30" s="46"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="46"/>
-      <c r="E30" s="46"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="45"/>
+      <c r="D30" s="44"/>
+      <c r="E30" s="44"/>
       <c r="F30" s="7"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="85"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="66"/>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1">
-      <c r="A31" s="59" t="str">
+      <c r="A31" s="55" t="str">
         <f>IF(B31="","","第三回")</f>
         <v/>
       </c>
-      <c r="B31" s="46"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="45"/>
+      <c r="D31" s="44"/>
+      <c r="E31" s="44"/>
       <c r="F31" s="7"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="85"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="66"/>
     </row>
     <row r="32" spans="1:8" ht="14.25" customHeight="1" thickBot="1">
-      <c r="A32" s="59" t="str">
+      <c r="A32" s="55" t="str">
         <f>IF(B32="","","第四回")</f>
         <v/>
       </c>
-      <c r="B32" s="46"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="45"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
       <c r="F32" s="7"/>
-      <c r="G32" s="86"/>
-      <c r="H32" s="87"/>
+      <c r="G32" s="67"/>
+      <c r="H32" s="68"/>
     </row>
     <row r="33" spans="1:8" ht="6.75" customHeight="1">
       <c r="A33" s="2"/>
     </row>
     <row r="34" spans="1:8" ht="14.25">
-      <c r="A34" s="41" t="s">
+      <c r="A34" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C35" s="69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D35" s="69"/>
+      <c r="E35" s="71" t="s">
+        <v>110</v>
+      </c>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="73"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" s="70"/>
+      <c r="E36" s="71" t="s">
+        <v>111</v>
+      </c>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="73"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="31" t="s">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37" s="70" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="70"/>
+      <c r="E37" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="73"/>
+    </row>
+    <row r="38" spans="1:8" ht="13.5">
+      <c r="A38" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="D38" s="69"/>
+      <c r="E38" s="74" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="75"/>
+      <c r="G38" s="75"/>
+      <c r="H38" s="76"/>
+    </row>
+    <row r="39" spans="1:8" s="3" customFormat="1" ht="13.5">
+      <c r="A39" s="32" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="C35" s="88" t="s">
-        <v>83</v>
-      </c>
-      <c r="D35" s="88"/>
-      <c r="E35" s="90" t="s">
-        <v>125</v>
-      </c>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="63"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="32" t="s">
-        <v>39</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C36" s="89" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="89"/>
-      <c r="E36" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="63"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="B37" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C37" s="89" t="s">
-        <v>93</v>
-      </c>
-      <c r="D37" s="89"/>
-      <c r="E37" s="90" t="s">
-        <v>127</v>
-      </c>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="63"/>
-    </row>
-    <row r="38" spans="1:8" ht="13.5">
-      <c r="A38" s="33" t="s">
+      <c r="B39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C39" s="77" t="s">
+        <v>88</v>
+      </c>
+      <c r="D39" s="78"/>
+      <c r="E39" s="83" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+    </row>
+    <row r="40" spans="1:8" s="3" customFormat="1" ht="13.5">
+      <c r="A40" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C40" s="79"/>
+      <c r="D40" s="80"/>
+      <c r="E40" s="85"/>
+      <c r="F40" s="86"/>
+      <c r="G40" s="86"/>
+      <c r="H40" s="86"/>
+    </row>
+    <row r="41" spans="1:8" s="3" customFormat="1" ht="13.5">
+      <c r="A41" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="81"/>
+      <c r="D41" s="82"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="88"/>
+      <c r="H41" s="88"/>
+    </row>
+    <row r="42" spans="1:8" s="3" customFormat="1" ht="14.25">
+      <c r="A42" s="61" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C42" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="B38" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="C38" s="88" t="s">
-        <v>94</v>
-      </c>
-      <c r="D38" s="88"/>
-      <c r="E38" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="F38" s="193"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="194"/>
-    </row>
-    <row r="39" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A39" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="C39" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="D39" s="65"/>
-      <c r="E39" s="70" t="s">
-        <v>129</v>
-      </c>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
-    </row>
-    <row r="40" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A40" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="C40" s="66"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="189"/>
-      <c r="F40" s="190"/>
-      <c r="G40" s="190"/>
-      <c r="H40" s="190"/>
-    </row>
-    <row r="41" spans="1:8" s="3" customFormat="1" ht="13.5">
-      <c r="A41" s="33" t="s">
-        <v>36</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C41" s="68"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="191"/>
-      <c r="F41" s="192"/>
-      <c r="G41" s="192"/>
-      <c r="H41" s="192"/>
-    </row>
-    <row r="42" spans="1:8" s="3" customFormat="1" ht="14.25">
-      <c r="A42" s="76" t="s">
+      <c r="D42" s="92"/>
+      <c r="E42" s="92"/>
+      <c r="F42" s="93"/>
+      <c r="G42" s="62" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="14.25">
+      <c r="A43" s="61"/>
+      <c r="B43" s="61"/>
+      <c r="C43" s="34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D43" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B42" s="76" t="s">
+      <c r="E43" s="34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F43" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="C42" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="D42" s="74"/>
-      <c r="E42" s="74"/>
-      <c r="F42" s="75"/>
-      <c r="G42" s="81" t="s">
-        <v>60</v>
-      </c>
-      <c r="H42" s="76" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="14.25">
-      <c r="A43" s="76"/>
-      <c r="B43" s="76"/>
-      <c r="C43" s="35" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43" s="38" t="s">
-        <v>63</v>
-      </c>
-      <c r="E43" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F43" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="G43" s="76"/>
-      <c r="H43" s="76"/>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
-      <c r="A44" s="34"/>
-      <c r="B44" s="36"/>
-      <c r="C44" s="36"/>
-      <c r="D44" s="36"/>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="77"/>
-      <c r="H44" s="42"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="35"/>
+      <c r="D44" s="35"/>
+      <c r="E44" s="35"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="94"/>
+      <c r="H44" s="41"/>
     </row>
     <row r="45" spans="1:8" ht="14.25">
-      <c r="A45" s="34"/>
-      <c r="B45" s="36"/>
-      <c r="C45" s="36"/>
-      <c r="D45" s="36"/>
-      <c r="E45" s="36"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="78"/>
-      <c r="H45" s="42"/>
+      <c r="A45" s="33"/>
+      <c r="B45" s="35"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="35"/>
+      <c r="E45" s="35"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="95"/>
+      <c r="H45" s="41"/>
     </row>
     <row r="46" spans="1:8" ht="14.25">
-      <c r="A46" s="34"/>
-      <c r="B46" s="36"/>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36"/>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="78"/>
-      <c r="H46" s="42"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="35"/>
+      <c r="C46" s="35"/>
+      <c r="D46" s="35"/>
+      <c r="E46" s="35"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="95"/>
+      <c r="H46" s="41"/>
     </row>
     <row r="47" spans="1:8" ht="14.25">
-      <c r="A47" s="39"/>
-      <c r="B47" s="36"/>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36"/>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="79"/>
-      <c r="H47" s="42"/>
+      <c r="A47" s="38"/>
+      <c r="B47" s="35"/>
+      <c r="C47" s="35"/>
+      <c r="D47" s="35"/>
+      <c r="E47" s="35"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="96"/>
+      <c r="H47" s="41"/>
     </row>
     <row r="48" spans="1:8" ht="14.25">
-      <c r="A48" s="34"/>
-      <c r="B48" s="36"/>
-      <c r="C48" s="36"/>
-      <c r="D48" s="36"/>
-      <c r="E48" s="36"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="43"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="35"/>
+      <c r="D48" s="35"/>
+      <c r="E48" s="35"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="36"/>
+      <c r="H48" s="42"/>
     </row>
     <row r="49" spans="1:8" ht="15">
-      <c r="A49" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="B49" s="72"/>
-      <c r="C49" s="40"/>
-      <c r="D49" s="40"/>
-      <c r="E49" s="40"/>
-      <c r="F49" s="40"/>
-      <c r="G49" s="40"/>
-      <c r="H49" s="44"/>
+      <c r="A49" s="89" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="90"/>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+      <c r="F49" s="39"/>
+      <c r="G49" s="39"/>
+      <c r="H49" s="43"/>
     </row>
   </sheetData>
   <protectedRanges>
@@ -3270,6 +3335,10 @@
     <protectedRange sqref="H48" name="範囲4"/>
   </protectedRanges>
   <mergeCells count="19">
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="G44:G47"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="B42:B43"/>
     <mergeCell ref="G42:G43"/>
@@ -3285,10 +3354,6 @@
     <mergeCell ref="E38:H38"/>
     <mergeCell ref="C39:D41"/>
     <mergeCell ref="E39:H41"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="G44:G47"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3299,14 +3364,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:R67"/>
+  <dimension ref="A1:R67"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="90" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="70" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3327,266 +3392,272 @@
     <col min="16" max="16" width="2.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="8.25" customHeight="1">
+    <row r="1" spans="1:15" ht="8.25" customHeight="1">
       <c r="E1" s="20"/>
     </row>
-    <row r="2" spans="2:15" ht="27">
+    <row r="2" spans="1:15" ht="27">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="31" t="s">
-        <v>100</v>
+      <c r="H2" s="30" t="s">
+        <v>86</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
       <c r="L2" s="12" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="M2" s="12"/>
       <c r="N2" s="10"/>
       <c r="O2" s="10"/>
     </row>
-    <row r="3" spans="2:15" ht="20.100000000000001" customHeight="1">
+    <row r="3" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B3" s="10"/>
-      <c r="C3" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="114"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="116" t="s">
-        <v>28</v>
+      <c r="C3" s="165" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="170" t="s">
+        <v>24</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
       <c r="K3" s="25"/>
-      <c r="L3" s="103" t="s">
-        <v>40</v>
-      </c>
-      <c r="M3" s="104"/>
-      <c r="N3" s="104"/>
-      <c r="O3" s="105"/>
-    </row>
-    <row r="4" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="L3" s="126" t="s">
+        <v>130</v>
+      </c>
+      <c r="M3" s="127"/>
+      <c r="N3" s="127"/>
+      <c r="O3" s="128"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B4" s="10"/>
-      <c r="C4" s="112"/>
-      <c r="D4" s="115"/>
-      <c r="E4" s="115"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="107"/>
-      <c r="I4" s="107"/>
-      <c r="J4" s="107"/>
-      <c r="K4" s="108"/>
-      <c r="L4" s="126"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="128"/>
-    </row>
-    <row r="5" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="C4" s="166"/>
+      <c r="D4" s="169"/>
+      <c r="E4" s="169"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="160"/>
+      <c r="H4" s="161"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="162"/>
+      <c r="L4" s="179">
+        <f>[1]記入!B37</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="180"/>
+      <c r="N4" s="180"/>
+      <c r="O4" s="181"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B5" s="10"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="115"/>
-      <c r="E5" s="115"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="107"/>
-      <c r="I5" s="107"/>
-      <c r="J5" s="107"/>
-      <c r="K5" s="108"/>
-      <c r="L5" s="103" t="s">
-        <v>42</v>
-      </c>
-      <c r="M5" s="104"/>
-      <c r="N5" s="104"/>
-      <c r="O5" s="105"/>
-    </row>
-    <row r="6" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="C5" s="166"/>
+      <c r="D5" s="169"/>
+      <c r="E5" s="169"/>
+      <c r="F5" s="166"/>
+      <c r="G5" s="160"/>
+      <c r="H5" s="161"/>
+      <c r="I5" s="161"/>
+      <c r="J5" s="161"/>
+      <c r="K5" s="162"/>
+      <c r="L5" s="126" t="s">
+        <v>129</v>
+      </c>
+      <c r="M5" s="127"/>
+      <c r="N5" s="127"/>
+      <c r="O5" s="128"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B6" s="10"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="116" t="s">
+      <c r="C6" s="166"/>
+      <c r="D6" s="169"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="170" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="106"/>
-      <c r="H6" s="107"/>
-      <c r="I6" s="107"/>
-      <c r="J6" s="107"/>
-      <c r="K6" s="108"/>
-      <c r="L6" s="117" t="str">
-        <f>記入!B38</f>
-        <v>${award.SCHEDULEDDATE}</v>
-      </c>
-      <c r="M6" s="118"/>
-      <c r="N6" s="118"/>
-      <c r="O6" s="119"/>
-    </row>
-    <row r="7" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="G6" s="160"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="162"/>
+      <c r="L6" s="171">
+        <f>[1]記入!B38</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="172"/>
+      <c r="N6" s="172"/>
+      <c r="O6" s="173"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B7" s="10"/>
-      <c r="C7" s="112"/>
-      <c r="D7" s="115"/>
-      <c r="E7" s="115"/>
-      <c r="F7" s="112"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="107"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="107"/>
-      <c r="K7" s="108"/>
-      <c r="L7" s="120" t="s">
+      <c r="C7" s="166"/>
+      <c r="D7" s="169"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="161"/>
+      <c r="I7" s="161"/>
+      <c r="J7" s="161"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="174" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="121"/>
-      <c r="N7" s="121"/>
-      <c r="O7" s="122"/>
-    </row>
-    <row r="8" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="M7" s="157"/>
+      <c r="N7" s="157"/>
+      <c r="O7" s="175"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B8" s="10"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="115"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="113"/>
-      <c r="G8" s="106"/>
-      <c r="H8" s="109"/>
-      <c r="I8" s="109"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="123"/>
-      <c r="M8" s="124"/>
-      <c r="N8" s="124"/>
-      <c r="O8" s="125"/>
-    </row>
-    <row r="9" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="C8" s="167"/>
+      <c r="D8" s="169"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="164"/>
+      <c r="L8" s="176"/>
+      <c r="M8" s="177"/>
+      <c r="N8" s="177"/>
+      <c r="O8" s="178"/>
+    </row>
+    <row r="9" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="10"/>
       <c r="C9" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D9" s="14"/>
       <c r="E9" s="14"/>
       <c r="F9" s="14"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="139" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="139" t="s">
-        <v>25</v>
-      </c>
-      <c r="J9" s="139" t="s">
-        <v>26</v>
-      </c>
-      <c r="K9" s="168" t="s">
-        <v>27</v>
-      </c>
-      <c r="L9" s="103" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" s="104"/>
-      <c r="N9" s="172" t="str">
-        <f>記入!B39</f>
-        <v>${award.plan}</v>
-      </c>
-      <c r="O9" s="173"/>
-    </row>
-    <row r="10" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="H9" s="119" t="s">
+        <v>128</v>
+      </c>
+      <c r="I9" s="119" t="s">
+        <v>127</v>
+      </c>
+      <c r="J9" s="119" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="L9" s="126" t="s">
+        <v>126</v>
+      </c>
+      <c r="M9" s="127"/>
+      <c r="N9" s="124">
+        <f>[1]記入!B39</f>
+        <v>0</v>
+      </c>
+      <c r="O9" s="125"/>
+    </row>
+    <row r="10" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B10" s="10"/>
-      <c r="C10" s="130" t="str">
-        <f>記入!B9</f>
-        <v>${award.deployment}</v>
-      </c>
-      <c r="D10" s="131"/>
-      <c r="E10" s="131"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="132"/>
-      <c r="H10" s="139"/>
-      <c r="I10" s="139"/>
-      <c r="J10" s="139"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="103" t="s">
+      <c r="C10" s="148">
+        <f>[1]記入!B9</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="150"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="119"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="M10" s="104"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="105"/>
-    </row>
-    <row r="11" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="M10" s="127"/>
+      <c r="N10" s="127"/>
+      <c r="O10" s="128"/>
+    </row>
+    <row r="11" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B11" s="10"/>
-      <c r="C11" s="133"/>
-      <c r="D11" s="134"/>
-      <c r="E11" s="134"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="171" t="str">
-        <f>記入!B36</f>
-        <v>${award.telephone}</v>
-      </c>
-      <c r="L11" s="169" t="str">
-        <f>記入!B20</f>
-        <v>${award.claimamount}</v>
-      </c>
-      <c r="M11" s="170"/>
-      <c r="N11" s="155" t="str">
-        <f>記入!B19</f>
-        <v>${award.currencyposition}</v>
-      </c>
-      <c r="O11" s="156"/>
-    </row>
-    <row r="12" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="C11" s="151"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="153"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119">
+        <f>[1]記入!B35</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="123">
+        <f>[1]記入!B36</f>
+        <v>0</v>
+      </c>
+      <c r="L11" s="121">
+        <f>[1]記入!B20</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="122"/>
+      <c r="N11" s="132">
+        <f>[1]記入!B19</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="133"/>
+    </row>
+    <row r="12" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B12" s="10"/>
       <c r="C12" s="28" t="s">
-        <v>23</v>
+        <v>125</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="17"/>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139"/>
-      <c r="K12" s="171"/>
-      <c r="L12" s="158" t="s">
-        <v>20</v>
-      </c>
-      <c r="M12" s="159"/>
-      <c r="N12" s="159"/>
-      <c r="O12" s="160"/>
-    </row>
-    <row r="13" spans="2:15" ht="20.100000000000001" customHeight="1">
+      <c r="H12" s="119"/>
+      <c r="I12" s="119"/>
+      <c r="J12" s="119"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="M12" s="136"/>
+      <c r="N12" s="136"/>
+      <c r="O12" s="137"/>
+    </row>
+    <row r="13" spans="1:15" ht="20.100000000000001" customHeight="1">
       <c r="B13" s="10"/>
-      <c r="C13" s="136" t="str">
-        <f>記入!B10</f>
-        <v>${award.pjnamejapanese}</v>
-      </c>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139"/>
-      <c r="K13" s="171"/>
-      <c r="L13" s="169" t="str">
-        <f>記入!B20</f>
-        <v>${award.claimamount}</v>
-      </c>
-      <c r="M13" s="170"/>
-      <c r="N13" s="155" t="str">
-        <f>記入!B19</f>
-        <v>${award.currencyposition}</v>
-      </c>
-      <c r="O13" s="156"/>
-    </row>
-    <row r="14" spans="2:15" ht="7.5" customHeight="1">
-      <c r="B14" s="129" t="s">
+      <c r="C13" s="154">
+        <f>[1]記入!B10</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="155"/>
+      <c r="E13" s="155"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="121">
+        <f>[1]記入!B20</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="122"/>
+      <c r="N13" s="132">
+        <f>[1]記入!B19</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="133"/>
+    </row>
+    <row r="14" spans="1:15" ht="7.5" customHeight="1">
+      <c r="B14" s="147" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="18"/>
@@ -3603,11 +3674,11 @@
       <c r="N14" s="26"/>
       <c r="O14" s="11"/>
     </row>
-    <row r="15" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="129"/>
+    <row r="15" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="147"/>
       <c r="C15" s="18"/>
       <c r="D15" s="21" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E15" s="21"/>
       <c r="F15" s="21"/>
@@ -3621,13 +3692,13 @@
       <c r="N15" s="22"/>
       <c r="O15" s="13"/>
     </row>
-    <row r="16" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="129"/>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="147"/>
       <c r="C16" s="18"/>
       <c r="D16" s="21"/>
       <c r="E16" s="19" t="str">
         <f>C10&amp;"は"</f>
-        <v>${award.deployment}は</v>
+        <v>0は</v>
       </c>
       <c r="F16" s="21"/>
       <c r="G16" s="21"/>
@@ -3641,12 +3712,12 @@
       <c r="O16" s="13"/>
     </row>
     <row r="17" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="129"/>
+      <c r="B17" s="147"/>
       <c r="C17" s="18"/>
       <c r="D17" s="21"/>
       <c r="E17" s="19" t="str">
-        <f>記入!B10&amp;"において、外注開発経験活用・コストダウンのため"</f>
-        <v>${award.pjnamejapanese}において、外注開発経験活用・コストダウンのため</v>
+        <f>[1]記入!B10&amp;"において、外注開発経験活用・コストダウンのため"</f>
+        <v>において、外注開発経験活用・コストダウンのため</v>
       </c>
       <c r="F17" s="21"/>
       <c r="G17" s="21"/>
@@ -3660,12 +3731,12 @@
       <c r="O17" s="13"/>
     </row>
     <row r="18" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="129"/>
+      <c r="B18" s="147"/>
       <c r="C18" s="18"/>
       <c r="D18" s="10"/>
       <c r="E18" s="19" t="str">
-        <f>"本プロジェクトの一部開発を"&amp; 記入!B2&amp;"へ委託するので、以下内容の通り委託個別契約書を締結する。"</f>
-        <v>本プロジェクトの一部開発を${award.custojapanese}へ委託するので、以下内容の通り委託個別契約書を締結する。</v>
+        <f>"本プロジェクトの一部開発を"&amp; [1]記入!B2&amp;"へ委託するので、以下内容の通り委託個別契約書を締結する。"</f>
+        <v>本プロジェクトの一部開発をへ委託するので、以下内容の通り委託個別契約書を締結する。</v>
       </c>
       <c r="F18" s="21"/>
       <c r="G18" s="21"/>
@@ -3679,7 +3750,7 @@
       <c r="O18" s="13"/>
     </row>
     <row r="19" spans="2:15" ht="6" customHeight="1">
-      <c r="B19" s="129"/>
+      <c r="B19" s="147"/>
       <c r="C19" s="18"/>
       <c r="D19" s="10"/>
       <c r="E19" s="21"/>
@@ -3695,10 +3766,10 @@
       <c r="O19" s="13"/>
     </row>
     <row r="20" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="129"/>
+      <c r="B20" s="147"/>
       <c r="C20" s="18"/>
       <c r="D20" s="21" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="21"/>
@@ -3713,524 +3784,524 @@
       <c r="O20" s="13"/>
     </row>
     <row r="21" spans="2:15" ht="15" customHeight="1">
-      <c r="B21" s="129"/>
+      <c r="B21" s="147"/>
       <c r="C21" s="18"/>
-      <c r="D21" s="143" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="143"/>
-      <c r="F21" s="161" t="str">
-        <f>記入!B2</f>
-        <v>${award.custojapanese}</v>
-      </c>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
-      <c r="J21" s="161"/>
-      <c r="K21" s="161"/>
-      <c r="L21" s="161"/>
-      <c r="M21" s="161"/>
-      <c r="N21" s="161"/>
+      <c r="D21" s="107" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="107"/>
+      <c r="F21" s="99">
+        <f>[1]記入!B2</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="99"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="99"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="99"/>
+      <c r="L21" s="99"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="99"/>
       <c r="O21" s="13"/>
     </row>
     <row r="22" spans="2:15" ht="15" customHeight="1">
-      <c r="B22" s="129"/>
+      <c r="B22" s="147"/>
       <c r="C22" s="18"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="161"/>
-      <c r="K22" s="161"/>
-      <c r="L22" s="161"/>
-      <c r="M22" s="161"/>
-      <c r="N22" s="161"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="107"/>
+      <c r="F22" s="99"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="99"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="99"/>
       <c r="O22" s="13"/>
     </row>
     <row r="23" spans="2:15" ht="15" customHeight="1">
-      <c r="B23" s="129"/>
+      <c r="B23" s="147"/>
       <c r="C23" s="18"/>
-      <c r="D23" s="143" t="s">
+      <c r="D23" s="107" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="107"/>
+      <c r="F23" s="99">
+        <f>C13</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="99"/>
+      <c r="L23" s="99"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="99"/>
+      <c r="O23" s="13"/>
+    </row>
+    <row r="24" spans="2:15" ht="15" customHeight="1">
+      <c r="B24" s="147"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="107"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="99"/>
+      <c r="L24" s="99"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="99"/>
+      <c r="O24" s="13"/>
+    </row>
+    <row r="25" spans="2:15" ht="15" customHeight="1">
+      <c r="B25" s="147"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="107" t="s">
+        <v>42</v>
+      </c>
+      <c r="E25" s="107"/>
+      <c r="F25" s="99">
+        <f>[1]記入!B12</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="99"/>
+      <c r="L25" s="99"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="99"/>
+      <c r="O25" s="13"/>
+    </row>
+    <row r="26" spans="2:15" ht="15" customHeight="1">
+      <c r="B26" s="147"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="99"/>
+      <c r="L26" s="99"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="99"/>
+      <c r="O26" s="13"/>
+    </row>
+    <row r="27" spans="2:15" ht="15" customHeight="1">
+      <c r="B27" s="147"/>
+      <c r="C27" s="18"/>
+      <c r="D27" s="138" t="s">
+        <v>45</v>
+      </c>
+      <c r="E27" s="138"/>
+      <c r="F27" s="141">
+        <f>[1]記入!B14</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="142"/>
+      <c r="H27" s="142"/>
+      <c r="I27" s="110" t="s">
+        <v>122</v>
+      </c>
+      <c r="J27" s="143">
+        <f>[1]記入!B15</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="143"/>
+      <c r="L27" s="143"/>
+      <c r="M27" s="143"/>
+      <c r="N27" s="144"/>
+      <c r="O27" s="13"/>
+    </row>
+    <row r="28" spans="2:15" ht="15" customHeight="1">
+      <c r="B28" s="147"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="138"/>
+      <c r="E28" s="138"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="142"/>
+      <c r="I28" s="110"/>
+      <c r="J28" s="143"/>
+      <c r="K28" s="143"/>
+      <c r="L28" s="143"/>
+      <c r="M28" s="143"/>
+      <c r="N28" s="144"/>
+      <c r="O28" s="13"/>
+    </row>
+    <row r="29" spans="2:15" ht="24.75" customHeight="1">
+      <c r="B29" s="147"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="112" t="s">
+        <v>43</v>
+      </c>
+      <c r="E29" s="113"/>
+      <c r="F29" s="112" t="s">
+        <v>46</v>
+      </c>
+      <c r="G29" s="113"/>
+      <c r="H29" s="116" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" s="97" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="98"/>
+      <c r="K29" s="118" t="s">
+        <v>51</v>
+      </c>
+      <c r="L29" s="113"/>
+      <c r="M29" s="112" t="s">
+        <v>44</v>
+      </c>
+      <c r="N29" s="113"/>
+      <c r="O29" s="13"/>
+    </row>
+    <row r="30" spans="2:15" ht="24.75" customHeight="1">
+      <c r="B30" s="147"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="117"/>
+      <c r="I30" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="143"/>
-      <c r="F23" s="161" t="str">
-        <f>C13</f>
-        <v>${award.pjnamejapanese}</v>
-      </c>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="161"/>
-      <c r="K23" s="161"/>
-      <c r="L23" s="161"/>
-      <c r="M23" s="161"/>
-      <c r="N23" s="161"/>
-      <c r="O23" s="13"/>
-    </row>
-    <row r="24" spans="2:15" ht="15" customHeight="1">
-      <c r="B24" s="129"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="143"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
-      <c r="J24" s="161"/>
-      <c r="K24" s="161"/>
-      <c r="L24" s="161"/>
-      <c r="M24" s="161"/>
-      <c r="N24" s="161"/>
-      <c r="O24" s="13"/>
-    </row>
-    <row r="25" spans="2:15" ht="15" customHeight="1">
-      <c r="B25" s="129"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="143" t="s">
+      <c r="J30" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="143"/>
-      <c r="F25" s="161" t="str">
-        <f>記入!B12</f>
-        <v>${award.user_id}</v>
-      </c>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
-      <c r="J25" s="161"/>
-      <c r="K25" s="161"/>
-      <c r="L25" s="161"/>
-      <c r="M25" s="161"/>
-      <c r="N25" s="161"/>
-      <c r="O25" s="13"/>
-    </row>
-    <row r="26" spans="2:15" ht="15" customHeight="1">
-      <c r="B26" s="129"/>
-      <c r="C26" s="18"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="143"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
-      <c r="J26" s="161"/>
-      <c r="K26" s="161"/>
-      <c r="L26" s="161"/>
-      <c r="M26" s="161"/>
-      <c r="N26" s="161"/>
-      <c r="O26" s="13"/>
-    </row>
-    <row r="27" spans="2:15" ht="15" customHeight="1">
-      <c r="B27" s="129"/>
-      <c r="C27" s="18"/>
-      <c r="D27" s="144" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="144"/>
-      <c r="F27" s="164" t="str">
-        <f>記入!B14</f>
-        <v>${startTime)}</v>
-      </c>
-      <c r="G27" s="165"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="142" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="166" t="str">
-        <f>記入!B15</f>
-        <v>${endTime}</v>
-      </c>
-      <c r="K27" s="166"/>
-      <c r="L27" s="166"/>
-      <c r="M27" s="166"/>
-      <c r="N27" s="167"/>
-      <c r="O27" s="13"/>
-    </row>
-    <row r="28" spans="2:15" ht="15" customHeight="1">
-      <c r="B28" s="129"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="144"/>
-      <c r="E28" s="144"/>
-      <c r="F28" s="164"/>
-      <c r="G28" s="165"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="142"/>
-      <c r="J28" s="166"/>
-      <c r="K28" s="166"/>
-      <c r="L28" s="166"/>
-      <c r="M28" s="166"/>
-      <c r="N28" s="167"/>
-      <c r="O28" s="13"/>
-    </row>
-    <row r="29" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B29" s="129"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="145" t="s">
-        <v>51</v>
-      </c>
-      <c r="E29" s="146"/>
-      <c r="F29" s="145" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="146"/>
-      <c r="H29" s="185" t="s">
-        <v>55</v>
-      </c>
-      <c r="I29" s="174" t="s">
-        <v>61</v>
-      </c>
-      <c r="J29" s="175"/>
-      <c r="K29" s="187" t="s">
-        <v>60</v>
-      </c>
-      <c r="L29" s="146"/>
-      <c r="M29" s="145" t="s">
-        <v>52</v>
-      </c>
-      <c r="N29" s="146"/>
-      <c r="O29" s="13"/>
-    </row>
-    <row r="30" spans="2:15" ht="24.75" customHeight="1">
-      <c r="B30" s="129"/>
-      <c r="C30" s="18"/>
-      <c r="D30" s="147"/>
-      <c r="E30" s="148"/>
-      <c r="F30" s="149"/>
-      <c r="G30" s="150"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="J30" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="K30" s="149"/>
-      <c r="L30" s="150"/>
-      <c r="M30" s="162" t="str">
-        <f>"(" &amp; 記入!B19 &amp; ")"</f>
-        <v>(${award.currencyposition})</v>
-      </c>
-      <c r="N30" s="163"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="139" t="str">
+        <f>"(" &amp; [1]記入!B19 &amp; ")"</f>
+        <v>()</v>
+      </c>
+      <c r="N30" s="140"/>
       <c r="O30" s="13"/>
     </row>
     <row r="31" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B31" s="129"/>
+      <c r="B31" s="147"/>
       <c r="C31" s="18"/>
-      <c r="D31" s="147"/>
-      <c r="E31" s="148"/>
-      <c r="F31" s="161">
-        <f>記入!A44</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="161"/>
-      <c r="H31" s="36">
-        <f>記入!B44</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="36">
-        <f>記入!C44</f>
-        <v>0</v>
-      </c>
-      <c r="J31" s="36">
-        <f>記入!E44</f>
-        <v>0</v>
-      </c>
-      <c r="K31" s="176">
-        <f>記入!G44</f>
-        <v>0</v>
-      </c>
-      <c r="L31" s="177"/>
-      <c r="M31" s="154">
-        <f>記入!H44</f>
-        <v>0</v>
-      </c>
-      <c r="N31" s="154"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="99">
+        <f>[1]記入!A44</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="99"/>
+      <c r="H31" s="35">
+        <f>[1]記入!B44</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="35">
+        <f>[1]記入!C44</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="35">
+        <f>[1]記入!E44</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="100">
+        <f>[1]記入!G44</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="101"/>
+      <c r="M31" s="106">
+        <f>[1]記入!H44</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="106"/>
       <c r="O31" s="13"/>
     </row>
     <row r="32" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B32" s="129"/>
+      <c r="B32" s="147"/>
       <c r="C32" s="18"/>
-      <c r="D32" s="147"/>
-      <c r="E32" s="148"/>
-      <c r="F32" s="161">
-        <f>記入!A45</f>
-        <v>0</v>
-      </c>
-      <c r="G32" s="161"/>
-      <c r="H32" s="36">
-        <f>記入!B45</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="36">
-        <f>記入!C45</f>
-        <v>0</v>
-      </c>
-      <c r="J32" s="36">
-        <f>記入!E45</f>
-        <v>0</v>
-      </c>
-      <c r="K32" s="178"/>
-      <c r="L32" s="179"/>
-      <c r="M32" s="154">
-        <f>記入!H45</f>
-        <v>0</v>
-      </c>
-      <c r="N32" s="154"/>
+      <c r="D32" s="158"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="99">
+        <f>[1]記入!A45</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="99"/>
+      <c r="H32" s="35">
+        <f>[1]記入!B45</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="35">
+        <f>[1]記入!C45</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="35">
+        <f>[1]記入!E45</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="102"/>
+      <c r="L32" s="103"/>
+      <c r="M32" s="106">
+        <f>[1]記入!H45</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="106"/>
       <c r="O32" s="13"/>
     </row>
     <row r="33" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B33" s="129"/>
+      <c r="B33" s="147"/>
       <c r="C33" s="18"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="148"/>
-      <c r="F33" s="161">
-        <f>記入!A46</f>
-        <v>0</v>
-      </c>
-      <c r="G33" s="161"/>
-      <c r="H33" s="36">
-        <f>記入!B46</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="36">
-        <f>記入!C46</f>
-        <v>0</v>
-      </c>
-      <c r="J33" s="36">
-        <f>記入!E46</f>
-        <v>0</v>
-      </c>
-      <c r="K33" s="178"/>
-      <c r="L33" s="179"/>
-      <c r="M33" s="154">
-        <f>記入!H46</f>
-        <v>0</v>
-      </c>
-      <c r="N33" s="154"/>
+      <c r="D33" s="158"/>
+      <c r="E33" s="159"/>
+      <c r="F33" s="99">
+        <f>[1]記入!A46</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="99"/>
+      <c r="H33" s="35">
+        <f>[1]記入!B46</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="35">
+        <f>[1]記入!C46</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="35">
+        <f>[1]記入!E46</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="102"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="106">
+        <f>[1]記入!H46</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="106"/>
       <c r="O33" s="13"/>
     </row>
     <row r="34" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B34" s="129"/>
+      <c r="B34" s="147"/>
       <c r="C34" s="18"/>
-      <c r="D34" s="147"/>
-      <c r="E34" s="148"/>
-      <c r="F34" s="161">
-        <f>記入!A47</f>
-        <v>0</v>
-      </c>
-      <c r="G34" s="161"/>
-      <c r="H34" s="36">
-        <f>記入!B47</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="36">
-        <f>記入!C47</f>
-        <v>0</v>
-      </c>
-      <c r="J34" s="36">
-        <f>記入!E47</f>
-        <v>0</v>
-      </c>
-      <c r="K34" s="180"/>
-      <c r="L34" s="181"/>
-      <c r="M34" s="154">
-        <f>記入!H47</f>
-        <v>0</v>
-      </c>
-      <c r="N34" s="154"/>
+      <c r="D34" s="158"/>
+      <c r="E34" s="159"/>
+      <c r="F34" s="99">
+        <f>[1]記入!A47</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="99"/>
+      <c r="H34" s="35">
+        <f>[1]記入!B47</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="35">
+        <f>[1]記入!C47</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="35">
+        <f>[1]記入!E47</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="104"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="106">
+        <f>[1]記入!H47</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="106"/>
       <c r="O34" s="13"/>
     </row>
     <row r="35" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B35" s="129"/>
+      <c r="B35" s="147"/>
       <c r="C35" s="18"/>
-      <c r="D35" s="147"/>
-      <c r="E35" s="148"/>
-      <c r="F35" s="161">
-        <f>記入!A48</f>
-        <v>0</v>
-      </c>
-      <c r="G35" s="161"/>
-      <c r="H35" s="36">
-        <f>記入!B48</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="36">
-        <f>記入!C48</f>
-        <v>0</v>
-      </c>
-      <c r="J35" s="36">
-        <f>記入!E48</f>
-        <v>0</v>
-      </c>
-      <c r="K35" s="161">
-        <f>記入!G48</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="161"/>
-      <c r="M35" s="154">
-        <f>記入!H48</f>
-        <v>0</v>
-      </c>
-      <c r="N35" s="154"/>
+      <c r="D35" s="158"/>
+      <c r="E35" s="159"/>
+      <c r="F35" s="99">
+        <f>[1]記入!A48</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="99"/>
+      <c r="H35" s="35">
+        <f>[1]記入!B48</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="35">
+        <f>[1]記入!C48</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="35">
+        <f>[1]記入!E48</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="99">
+        <f>[1]記入!G48</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="99"/>
+      <c r="M35" s="106">
+        <f>[1]記入!H48</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="106"/>
       <c r="O35" s="13"/>
     </row>
     <row r="36" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B36" s="129"/>
+      <c r="B36" s="147"/>
       <c r="C36" s="18"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="143" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" s="143"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="30" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="30">
+      <c r="D36" s="114"/>
+      <c r="E36" s="115"/>
+      <c r="F36" s="107" t="s">
+        <v>48</v>
+      </c>
+      <c r="G36" s="107"/>
+      <c r="H36" s="107"/>
+      <c r="I36" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="J36" s="59">
         <f>SUM(J31:J35)</f>
         <v>0</v>
       </c>
-      <c r="K36" s="143">
+      <c r="K36" s="107">
         <f>SUM(K31:L35)</f>
         <v>0</v>
       </c>
-      <c r="L36" s="143"/>
-      <c r="M36" s="157">
+      <c r="L36" s="107"/>
+      <c r="M36" s="134">
         <f>SUM(M31:N35)</f>
         <v>0</v>
       </c>
-      <c r="N36" s="157"/>
+      <c r="N36" s="134"/>
       <c r="O36" s="13"/>
     </row>
     <row r="37" spans="2:15" ht="24.95" customHeight="1">
-      <c r="B37" s="129"/>
+      <c r="B37" s="147"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="144" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="144"/>
-      <c r="F37" s="174" t="s">
-        <v>103</v>
-      </c>
-      <c r="G37" s="182"/>
-      <c r="H37" s="182"/>
-      <c r="I37" s="175"/>
-      <c r="J37" s="144" t="str">
-        <f>"請求金額"&amp;"("&amp;記入!B19&amp;")"</f>
-        <v>請求金額(${award.currencyposition})</v>
-      </c>
-      <c r="K37" s="144"/>
-      <c r="L37" s="144"/>
-      <c r="M37" s="144"/>
-      <c r="N37" s="144"/>
+      <c r="D37" s="138" t="s">
+        <v>120</v>
+      </c>
+      <c r="E37" s="138"/>
+      <c r="F37" s="97" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="108"/>
+      <c r="H37" s="108"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="138" t="str">
+        <f>"請求金額"&amp;"("&amp;[1]記入!B19&amp;")"</f>
+        <v>請求金額()</v>
+      </c>
+      <c r="K37" s="138"/>
+      <c r="L37" s="138"/>
+      <c r="M37" s="138"/>
+      <c r="N37" s="138"/>
       <c r="O37" s="13"/>
     </row>
     <row r="38" spans="2:15" ht="18" customHeight="1">
-      <c r="B38" s="129"/>
+      <c r="B38" s="147"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="143" t="str">
-        <f>記入!A29</f>
+      <c r="D38" s="107" t="str">
+        <f>[1]記入!A29</f>
         <v/>
       </c>
-      <c r="E38" s="143"/>
-      <c r="F38" s="183" t="str">
-        <f>IF(記入!E29="","",記入!E29)</f>
+      <c r="E38" s="107"/>
+      <c r="F38" s="109" t="str">
+        <f>IF([1]記入!E29="","",[1]記入!E29)</f>
         <v/>
       </c>
-      <c r="G38" s="142"/>
-      <c r="H38" s="142"/>
-      <c r="I38" s="184"/>
-      <c r="J38" s="154" t="str">
-        <f>IF(記入!F29="","",記入!F29)</f>
+      <c r="G38" s="110"/>
+      <c r="H38" s="110"/>
+      <c r="I38" s="111"/>
+      <c r="J38" s="106" t="str">
+        <f>IF([1]記入!F29="","",[1]記入!F29)</f>
         <v/>
       </c>
-      <c r="K38" s="154"/>
-      <c r="L38" s="154"/>
-      <c r="M38" s="154"/>
-      <c r="N38" s="154"/>
+      <c r="K38" s="106"/>
+      <c r="L38" s="106"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="106"/>
       <c r="O38" s="13"/>
     </row>
     <row r="39" spans="2:15" ht="18" customHeight="1">
-      <c r="B39" s="129"/>
+      <c r="B39" s="147"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="143" t="str">
-        <f>記入!A30</f>
+      <c r="D39" s="107" t="str">
+        <f>[1]記入!A30</f>
         <v/>
       </c>
-      <c r="E39" s="143"/>
-      <c r="F39" s="183" t="str">
-        <f>IF(記入!E30="","",記入!E30)</f>
+      <c r="E39" s="107"/>
+      <c r="F39" s="109" t="str">
+        <f>IF([1]記入!E30="","",[1]記入!E30)</f>
         <v/>
       </c>
-      <c r="G39" s="142"/>
-      <c r="H39" s="142"/>
-      <c r="I39" s="184"/>
-      <c r="J39" s="154" t="str">
-        <f>IF(記入!F30="","",記入!F30)</f>
+      <c r="G39" s="110"/>
+      <c r="H39" s="110"/>
+      <c r="I39" s="111"/>
+      <c r="J39" s="106" t="str">
+        <f>IF([1]記入!F30="","",[1]記入!F30)</f>
         <v/>
       </c>
-      <c r="K39" s="154"/>
-      <c r="L39" s="154"/>
-      <c r="M39" s="154"/>
-      <c r="N39" s="154"/>
+      <c r="K39" s="106"/>
+      <c r="L39" s="106"/>
+      <c r="M39" s="106"/>
+      <c r="N39" s="106"/>
       <c r="O39" s="13"/>
     </row>
     <row r="40" spans="2:15" ht="18" customHeight="1">
-      <c r="B40" s="129"/>
+      <c r="B40" s="147"/>
       <c r="C40" s="18"/>
-      <c r="D40" s="143" t="str">
-        <f>記入!A31</f>
+      <c r="D40" s="107" t="str">
+        <f>[1]記入!A31</f>
         <v/>
       </c>
-      <c r="E40" s="143"/>
-      <c r="F40" s="183" t="str">
-        <f>IF(記入!E31="","",記入!E31)</f>
+      <c r="E40" s="107"/>
+      <c r="F40" s="109" t="str">
+        <f>IF([1]記入!E31="","",[1]記入!E31)</f>
         <v/>
       </c>
-      <c r="G40" s="142"/>
-      <c r="H40" s="142"/>
-      <c r="I40" s="184"/>
-      <c r="J40" s="154" t="str">
-        <f>IF(記入!F31="","",記入!F31)</f>
+      <c r="G40" s="110"/>
+      <c r="H40" s="110"/>
+      <c r="I40" s="111"/>
+      <c r="J40" s="106" t="str">
+        <f>IF([1]記入!F31="","",[1]記入!F31)</f>
         <v/>
       </c>
-      <c r="K40" s="154"/>
-      <c r="L40" s="154"/>
-      <c r="M40" s="154"/>
-      <c r="N40" s="154"/>
+      <c r="K40" s="106"/>
+      <c r="L40" s="106"/>
+      <c r="M40" s="106"/>
+      <c r="N40" s="106"/>
       <c r="O40" s="13"/>
     </row>
     <row r="41" spans="2:15" ht="18" customHeight="1">
-      <c r="B41" s="129"/>
+      <c r="B41" s="147"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="143" t="str">
-        <f>記入!A32</f>
+      <c r="D41" s="107" t="str">
+        <f>[1]記入!A32</f>
         <v/>
       </c>
-      <c r="E41" s="143"/>
-      <c r="F41" s="183" t="str">
-        <f>IF(記入!E32="","",記入!E32)</f>
+      <c r="E41" s="107"/>
+      <c r="F41" s="109" t="str">
+        <f>IF([1]記入!E32="","",[1]記入!E32)</f>
         <v/>
       </c>
-      <c r="G41" s="142"/>
-      <c r="H41" s="142"/>
-      <c r="I41" s="184"/>
-      <c r="J41" s="154" t="str">
-        <f>IF(記入!F32="","",記入!F32)</f>
+      <c r="G41" s="110"/>
+      <c r="H41" s="110"/>
+      <c r="I41" s="111"/>
+      <c r="J41" s="106" t="str">
+        <f>IF([1]記入!F32="","",[1]記入!F32)</f>
         <v/>
       </c>
-      <c r="K41" s="154"/>
-      <c r="L41" s="154"/>
-      <c r="M41" s="154"/>
-      <c r="N41" s="154"/>
+      <c r="K41" s="106"/>
+      <c r="L41" s="106"/>
+      <c r="M41" s="106"/>
+      <c r="N41" s="106"/>
       <c r="O41" s="13"/>
     </row>
     <row r="42" spans="2:15" ht="18" customHeight="1">
-      <c r="B42" s="129"/>
+      <c r="B42" s="147"/>
       <c r="C42" s="18"/>
       <c r="D42" s="21"/>
       <c r="E42" s="21"/>
@@ -4238,21 +4309,21 @@
       <c r="G42" s="21"/>
       <c r="H42" s="21"/>
       <c r="I42" s="21"/>
-      <c r="J42" s="151">
+      <c r="J42" s="129">
         <f>SUM(J38:N41)</f>
         <v>0</v>
       </c>
-      <c r="K42" s="152"/>
-      <c r="L42" s="152"/>
-      <c r="M42" s="152"/>
-      <c r="N42" s="153"/>
+      <c r="K42" s="130"/>
+      <c r="L42" s="130"/>
+      <c r="M42" s="130"/>
+      <c r="N42" s="131"/>
       <c r="O42" s="13"/>
     </row>
     <row r="43" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B43" s="129"/>
+      <c r="B43" s="147"/>
       <c r="C43" s="18"/>
       <c r="D43" s="22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="22"/>
@@ -4267,16 +4338,16 @@
       <c r="O43" s="13"/>
     </row>
     <row r="44" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="129"/>
+      <c r="B44" s="147"/>
       <c r="C44" s="18"/>
       <c r="D44" s="22"/>
-      <c r="E44" s="121" t="s">
-        <v>46</v>
-      </c>
-      <c r="F44" s="121"/>
-      <c r="G44" s="16" t="str">
-        <f>記入!B40</f>
-        <v>${award.valuation}</v>
+      <c r="E44" s="157" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="157"/>
+      <c r="G44" s="16">
+        <f>[1]記入!B40</f>
+        <v>0</v>
       </c>
       <c r="H44" s="21"/>
       <c r="I44" s="21"/>
@@ -4288,16 +4359,16 @@
       <c r="O44" s="13"/>
     </row>
     <row r="45" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="129"/>
+      <c r="B45" s="147"/>
       <c r="C45" s="18"/>
       <c r="D45" s="22"/>
-      <c r="E45" s="121" t="s">
-        <v>47</v>
-      </c>
-      <c r="F45" s="121"/>
-      <c r="G45" s="16" t="str">
-        <f>記入!B41</f>
-        <v>${award.individual}</v>
+      <c r="E45" s="157" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="157"/>
+      <c r="G45" s="16">
+        <f>[1]記入!B41</f>
+        <v>0</v>
       </c>
       <c r="H45" s="21"/>
       <c r="I45" s="21"/>
@@ -4309,11 +4380,11 @@
       <c r="O45" s="13"/>
     </row>
     <row r="46" spans="2:15" ht="9.75" customHeight="1">
-      <c r="B46" s="129"/>
+      <c r="B46" s="147"/>
       <c r="C46" s="18"/>
       <c r="D46" s="22"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="58"/>
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
@@ -4325,382 +4396,382 @@
       <c r="O46" s="13"/>
     </row>
     <row r="47" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="129"/>
+      <c r="B47" s="147"/>
       <c r="C47" s="18"/>
       <c r="D47" s="22" t="s">
-        <v>81</v>
-      </c>
-      <c r="E47" s="45"/>
-      <c r="F47" s="45"/>
-      <c r="G47" s="93" t="e">
-        <f>記入!#REF!</f>
-        <v>#REF!</v>
-      </c>
-      <c r="H47" s="93"/>
-      <c r="I47" s="93" t="s">
-        <v>82</v>
-      </c>
-      <c r="J47" s="93"/>
-      <c r="K47" s="93"/>
-      <c r="L47" s="93"/>
-      <c r="M47" s="93"/>
-      <c r="N47" s="93"/>
+        <v>71</v>
+      </c>
+      <c r="E47" s="58"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="184">
+        <f>[1]記入!E35</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="184"/>
+      <c r="I47" s="184" t="s">
+        <v>72</v>
+      </c>
+      <c r="J47" s="184"/>
+      <c r="K47" s="184"/>
+      <c r="L47" s="184"/>
+      <c r="M47" s="184"/>
+      <c r="N47" s="184"/>
       <c r="O47" s="13"/>
     </row>
     <row r="48" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="129"/>
+      <c r="B48" s="147"/>
       <c r="C48" s="18"/>
       <c r="D48" s="22"/>
-      <c r="E48" s="45"/>
-      <c r="F48" s="45"/>
-      <c r="G48" s="93" t="s">
-        <v>84</v>
-      </c>
-      <c r="H48" s="93"/>
-      <c r="I48" s="100" t="e">
-        <f>IF(G47="有",記入!B7,"-")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J48" s="101"/>
-      <c r="K48" s="101"/>
-      <c r="L48" s="101"/>
-      <c r="M48" s="101"/>
-      <c r="N48" s="102"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="58"/>
+      <c r="G48" s="184" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" s="184"/>
+      <c r="I48" s="191" t="str">
+        <f>IF(G47="有",[1]記入!B7,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="J48" s="192"/>
+      <c r="K48" s="192"/>
+      <c r="L48" s="192"/>
+      <c r="M48" s="192"/>
+      <c r="N48" s="193"/>
       <c r="O48" s="13"/>
     </row>
     <row r="49" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B49" s="129"/>
+      <c r="B49" s="147"/>
       <c r="C49" s="18"/>
       <c r="D49" s="22"/>
-      <c r="E49" s="45"/>
-      <c r="F49" s="45"/>
-      <c r="G49" s="95" t="s">
-        <v>87</v>
-      </c>
-      <c r="H49" s="96"/>
-      <c r="I49" s="97" t="e">
+      <c r="E49" s="58"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="186" t="s">
+        <v>119</v>
+      </c>
+      <c r="H49" s="187"/>
+      <c r="I49" s="188" t="str">
         <f>IF(G47="有",F27,"-")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J49" s="98"/>
-      <c r="K49" s="51" t="s">
-        <v>89</v>
-      </c>
-      <c r="L49" s="99" t="e">
+        <v>-</v>
+      </c>
+      <c r="J49" s="189"/>
+      <c r="K49" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="L49" s="190" t="str">
         <f>IF(G47="有",J27,"-")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="M49" s="98"/>
-      <c r="N49" s="96"/>
+        <v>-</v>
+      </c>
+      <c r="M49" s="189"/>
+      <c r="N49" s="187"/>
       <c r="O49" s="13"/>
-      <c r="R49" s="49"/>
+      <c r="R49" s="47"/>
     </row>
     <row r="50" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B50" s="129"/>
+      <c r="B50" s="147"/>
       <c r="C50" s="18"/>
       <c r="D50" s="22"/>
-      <c r="E50" s="45"/>
-      <c r="F50" s="45"/>
-      <c r="G50" s="93" t="s">
-        <v>90</v>
-      </c>
-      <c r="H50" s="93"/>
-      <c r="I50" s="94" t="e">
-        <f>IF(G47="有",記入!E36,"-")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J50" s="94"/>
-      <c r="K50" s="94"/>
-      <c r="L50" s="94"/>
-      <c r="M50" s="94"/>
-      <c r="N50" s="94"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="58"/>
+      <c r="G50" s="184" t="s">
+        <v>118</v>
+      </c>
+      <c r="H50" s="184"/>
+      <c r="I50" s="185" t="str">
+        <f>IF(G47="有",[1]記入!E36,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="J50" s="185"/>
+      <c r="K50" s="185"/>
+      <c r="L50" s="185"/>
+      <c r="M50" s="185"/>
+      <c r="N50" s="185"/>
       <c r="O50" s="13"/>
-      <c r="R50" s="49"/>
+      <c r="R50" s="47"/>
     </row>
     <row r="51" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B51" s="129"/>
+      <c r="B51" s="147"/>
       <c r="C51" s="18"/>
       <c r="D51" s="22"/>
-      <c r="E51" s="45"/>
-      <c r="F51" s="45"/>
-      <c r="G51" s="93" t="s">
-        <v>92</v>
-      </c>
-      <c r="H51" s="93"/>
-      <c r="I51" s="94" t="e">
-        <f>IF(G47="有",記入!E35&amp;記入!E38,"-")</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J51" s="94"/>
-      <c r="K51" s="94"/>
-      <c r="L51" s="94"/>
-      <c r="M51" s="94"/>
-      <c r="N51" s="94"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="58"/>
+      <c r="G51" s="184" t="s">
+        <v>78</v>
+      </c>
+      <c r="H51" s="184"/>
+      <c r="I51" s="185" t="str">
+        <f>IF(G47="有",[1]記入!E37&amp;[1]記入!E38,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="J51" s="185"/>
+      <c r="K51" s="185"/>
+      <c r="L51" s="185"/>
+      <c r="M51" s="185"/>
+      <c r="N51" s="185"/>
       <c r="O51" s="13"/>
-      <c r="R51" s="50"/>
+      <c r="R51" s="48"/>
     </row>
     <row r="52" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B52" s="129"/>
+      <c r="B52" s="147"/>
       <c r="C52" s="18"/>
       <c r="D52" s="22"/>
-      <c r="E52" s="45"/>
-      <c r="F52" s="45"/>
-      <c r="G52" s="49" t="s">
-        <v>85</v>
-      </c>
-      <c r="H52" s="48"/>
-      <c r="I52" s="48"/>
-      <c r="J52" s="48"/>
-      <c r="K52" s="48"/>
-      <c r="L52" s="48"/>
-      <c r="M52" s="48"/>
-      <c r="N52" s="48"/>
+      <c r="E52" s="58"/>
+      <c r="F52" s="58"/>
+      <c r="G52" s="47" t="s">
+        <v>75</v>
+      </c>
+      <c r="H52" s="46"/>
+      <c r="I52" s="46"/>
+      <c r="J52" s="46"/>
+      <c r="K52" s="46"/>
+      <c r="L52" s="46"/>
+      <c r="M52" s="46"/>
+      <c r="N52" s="46"/>
       <c r="O52" s="13"/>
-      <c r="R52" s="50"/>
+      <c r="R52" s="48"/>
     </row>
     <row r="53" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B53" s="129"/>
+      <c r="B53" s="147"/>
       <c r="C53" s="18"/>
       <c r="D53" s="22"/>
-      <c r="E53" s="45"/>
-      <c r="F53" s="45"/>
-      <c r="G53" s="49" t="s">
-        <v>86</v>
-      </c>
-      <c r="H53" s="48"/>
-      <c r="I53" s="48"/>
-      <c r="J53" s="48"/>
-      <c r="K53" s="48"/>
-      <c r="L53" s="48"/>
-      <c r="M53" s="48"/>
-      <c r="N53" s="48"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="58"/>
+      <c r="G53" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="H53" s="46"/>
+      <c r="I53" s="46"/>
+      <c r="J53" s="46"/>
+      <c r="K53" s="46"/>
+      <c r="L53" s="46"/>
+      <c r="M53" s="46"/>
+      <c r="N53" s="46"/>
       <c r="O53" s="13"/>
-      <c r="R53" s="50"/>
+      <c r="R53" s="48"/>
     </row>
     <row r="54" spans="2:18" ht="9" customHeight="1">
-      <c r="B54" s="129"/>
+      <c r="B54" s="147"/>
       <c r="C54" s="18"/>
       <c r="D54" s="22"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="48"/>
-      <c r="I54" s="48"/>
-      <c r="J54" s="48"/>
-      <c r="K54" s="48"/>
-      <c r="L54" s="48"/>
-      <c r="M54" s="48"/>
-      <c r="N54" s="48"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="58"/>
+      <c r="G54" s="47"/>
+      <c r="H54" s="46"/>
+      <c r="I54" s="46"/>
+      <c r="J54" s="46"/>
+      <c r="K54" s="46"/>
+      <c r="L54" s="46"/>
+      <c r="M54" s="46"/>
+      <c r="N54" s="46"/>
       <c r="O54" s="13"/>
-      <c r="R54" s="50"/>
+      <c r="R54" s="48"/>
     </row>
     <row r="55" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B55" s="129"/>
+      <c r="B55" s="147"/>
       <c r="C55" s="18"/>
       <c r="D55" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="E55" s="52"/>
-      <c r="F55" s="91" t="str">
-        <f>記入!E39</f>
-        <v>${award.remarks}</v>
-      </c>
-      <c r="G55" s="91"/>
-      <c r="H55" s="91"/>
-      <c r="I55" s="91"/>
-      <c r="J55" s="91"/>
-      <c r="K55" s="91"/>
-      <c r="L55" s="91"/>
-      <c r="M55" s="91"/>
-      <c r="N55" s="91"/>
+        <v>87</v>
+      </c>
+      <c r="E55" s="58"/>
+      <c r="F55" s="182">
+        <f>[1]記入!E39</f>
+        <v>0</v>
+      </c>
+      <c r="G55" s="182"/>
+      <c r="H55" s="182"/>
+      <c r="I55" s="182"/>
+      <c r="J55" s="182"/>
+      <c r="K55" s="182"/>
+      <c r="L55" s="182"/>
+      <c r="M55" s="182"/>
+      <c r="N55" s="182"/>
       <c r="O55" s="13"/>
-      <c r="R55" s="50"/>
+      <c r="R55" s="48"/>
     </row>
     <row r="56" spans="2:18" ht="18.75" customHeight="1">
-      <c r="B56" s="129"/>
+      <c r="B56" s="147"/>
       <c r="C56" s="18"/>
       <c r="D56" s="22"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="92"/>
-      <c r="G56" s="92"/>
-      <c r="H56" s="92"/>
-      <c r="I56" s="92"/>
-      <c r="J56" s="92"/>
-      <c r="K56" s="92"/>
-      <c r="L56" s="92"/>
-      <c r="M56" s="92"/>
-      <c r="N56" s="92"/>
+      <c r="E56" s="49"/>
+      <c r="F56" s="183"/>
+      <c r="G56" s="183"/>
+      <c r="H56" s="183"/>
+      <c r="I56" s="183"/>
+      <c r="J56" s="183"/>
+      <c r="K56" s="183"/>
+      <c r="L56" s="183"/>
+      <c r="M56" s="183"/>
+      <c r="N56" s="183"/>
       <c r="O56" s="13"/>
     </row>
     <row r="57" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="129"/>
-      <c r="C57" s="141" t="s">
-        <v>35</v>
-      </c>
-      <c r="D57" s="141"/>
-      <c r="E57" s="141"/>
-      <c r="F57" s="141" t="s">
-        <v>33</v>
-      </c>
-      <c r="G57" s="141"/>
-      <c r="H57" s="141" t="s">
-        <v>34</v>
-      </c>
-      <c r="I57" s="141"/>
-      <c r="J57" s="141" t="s">
-        <v>33</v>
-      </c>
-      <c r="K57" s="141"/>
-      <c r="L57" s="141"/>
-      <c r="M57" s="141" t="s">
-        <v>34</v>
-      </c>
-      <c r="N57" s="141"/>
-      <c r="O57" s="141"/>
+      <c r="B57" s="147"/>
+      <c r="C57" s="146" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="146"/>
+      <c r="E57" s="146"/>
+      <c r="F57" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="G57" s="146"/>
+      <c r="H57" s="146" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" s="146"/>
+      <c r="J57" s="146" t="s">
+        <v>29</v>
+      </c>
+      <c r="K57" s="146"/>
+      <c r="L57" s="146"/>
+      <c r="M57" s="146" t="s">
+        <v>30</v>
+      </c>
+      <c r="N57" s="146"/>
+      <c r="O57" s="146"/>
     </row>
     <row r="58" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="129"/>
-      <c r="C58" s="141"/>
-      <c r="D58" s="141"/>
-      <c r="E58" s="141"/>
-      <c r="F58" s="140"/>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="140"/>
-      <c r="L58" s="140"/>
-      <c r="M58" s="140"/>
-      <c r="N58" s="140"/>
-      <c r="O58" s="140"/>
+      <c r="B58" s="147"/>
+      <c r="C58" s="146"/>
+      <c r="D58" s="146"/>
+      <c r="E58" s="146"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="145"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="145"/>
+      <c r="J58" s="145"/>
+      <c r="K58" s="145"/>
+      <c r="L58" s="145"/>
+      <c r="M58" s="145"/>
+      <c r="N58" s="145"/>
+      <c r="O58" s="145"/>
     </row>
     <row r="59" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="129"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="140"/>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="140"/>
-      <c r="L59" s="140"/>
-      <c r="M59" s="140"/>
-      <c r="N59" s="140"/>
-      <c r="O59" s="140"/>
+      <c r="B59" s="147"/>
+      <c r="C59" s="146"/>
+      <c r="D59" s="146"/>
+      <c r="E59" s="146"/>
+      <c r="F59" s="145"/>
+      <c r="G59" s="145"/>
+      <c r="H59" s="145"/>
+      <c r="I59" s="145"/>
+      <c r="J59" s="145"/>
+      <c r="K59" s="145"/>
+      <c r="L59" s="145"/>
+      <c r="M59" s="145"/>
+      <c r="N59" s="145"/>
+      <c r="O59" s="145"/>
     </row>
     <row r="60" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B60" s="129"/>
-      <c r="C60" s="141"/>
-      <c r="D60" s="141"/>
-      <c r="E60" s="141"/>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="140"/>
-      <c r="K60" s="140"/>
-      <c r="L60" s="140"/>
-      <c r="M60" s="140"/>
-      <c r="N60" s="140"/>
-      <c r="O60" s="140"/>
+      <c r="B60" s="147"/>
+      <c r="C60" s="146"/>
+      <c r="D60" s="146"/>
+      <c r="E60" s="146"/>
+      <c r="F60" s="145"/>
+      <c r="G60" s="145"/>
+      <c r="H60" s="145"/>
+      <c r="I60" s="145"/>
+      <c r="J60" s="145"/>
+      <c r="K60" s="145"/>
+      <c r="L60" s="145"/>
+      <c r="M60" s="145"/>
+      <c r="N60" s="145"/>
+      <c r="O60" s="145"/>
     </row>
     <row r="61" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B61" s="129"/>
-      <c r="C61" s="141"/>
-      <c r="D61" s="141"/>
-      <c r="E61" s="141"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="140"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="140"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="140"/>
-      <c r="L61" s="140"/>
-      <c r="M61" s="140"/>
-      <c r="N61" s="140"/>
-      <c r="O61" s="140"/>
+      <c r="B61" s="147"/>
+      <c r="C61" s="146"/>
+      <c r="D61" s="146"/>
+      <c r="E61" s="146"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="145"/>
+      <c r="I61" s="145"/>
+      <c r="J61" s="145"/>
+      <c r="K61" s="145"/>
+      <c r="L61" s="145"/>
+      <c r="M61" s="145"/>
+      <c r="N61" s="145"/>
+      <c r="O61" s="145"/>
     </row>
     <row r="62" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B62" s="129"/>
-      <c r="C62" s="141"/>
-      <c r="D62" s="141"/>
-      <c r="E62" s="141"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="140"/>
-      <c r="K62" s="140"/>
-      <c r="L62" s="140"/>
-      <c r="M62" s="140"/>
-      <c r="N62" s="140"/>
-      <c r="O62" s="140"/>
+      <c r="B62" s="147"/>
+      <c r="C62" s="146"/>
+      <c r="D62" s="146"/>
+      <c r="E62" s="146"/>
+      <c r="F62" s="145"/>
+      <c r="G62" s="145"/>
+      <c r="H62" s="145"/>
+      <c r="I62" s="145"/>
+      <c r="J62" s="145"/>
+      <c r="K62" s="145"/>
+      <c r="L62" s="145"/>
+      <c r="M62" s="145"/>
+      <c r="N62" s="145"/>
+      <c r="O62" s="145"/>
     </row>
     <row r="63" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B63" s="129"/>
-      <c r="C63" s="141"/>
-      <c r="D63" s="141"/>
-      <c r="E63" s="141"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="140"/>
-      <c r="K63" s="140"/>
-      <c r="L63" s="140"/>
-      <c r="M63" s="140"/>
-      <c r="N63" s="140"/>
-      <c r="O63" s="140"/>
+      <c r="B63" s="147"/>
+      <c r="C63" s="146"/>
+      <c r="D63" s="146"/>
+      <c r="E63" s="146"/>
+      <c r="F63" s="145"/>
+      <c r="G63" s="145"/>
+      <c r="H63" s="145"/>
+      <c r="I63" s="145"/>
+      <c r="J63" s="145"/>
+      <c r="K63" s="145"/>
+      <c r="L63" s="145"/>
+      <c r="M63" s="145"/>
+      <c r="N63" s="145"/>
+      <c r="O63" s="145"/>
     </row>
     <row r="64" spans="2:18" ht="20.100000000000001" customHeight="1">
-      <c r="B64" s="129"/>
-      <c r="C64" s="141"/>
-      <c r="D64" s="141"/>
-      <c r="E64" s="141"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="140"/>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140"/>
-      <c r="J64" s="140"/>
-      <c r="K64" s="140"/>
-      <c r="L64" s="140"/>
-      <c r="M64" s="140"/>
-      <c r="N64" s="140"/>
-      <c r="O64" s="140"/>
+      <c r="B64" s="147"/>
+      <c r="C64" s="146"/>
+      <c r="D64" s="146"/>
+      <c r="E64" s="146"/>
+      <c r="F64" s="145"/>
+      <c r="G64" s="145"/>
+      <c r="H64" s="145"/>
+      <c r="I64" s="145"/>
+      <c r="J64" s="145"/>
+      <c r="K64" s="145"/>
+      <c r="L64" s="145"/>
+      <c r="M64" s="145"/>
+      <c r="N64" s="145"/>
+      <c r="O64" s="145"/>
     </row>
     <row r="65" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B65" s="129"/>
-      <c r="C65" s="141"/>
-      <c r="D65" s="141"/>
-      <c r="E65" s="141"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="140"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="140"/>
-      <c r="K65" s="140"/>
-      <c r="L65" s="140"/>
-      <c r="M65" s="140"/>
-      <c r="N65" s="140"/>
-      <c r="O65" s="140"/>
+      <c r="B65" s="147"/>
+      <c r="C65" s="146"/>
+      <c r="D65" s="146"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="145"/>
+      <c r="G65" s="145"/>
+      <c r="H65" s="145"/>
+      <c r="I65" s="145"/>
+      <c r="J65" s="145"/>
+      <c r="K65" s="145"/>
+      <c r="L65" s="145"/>
+      <c r="M65" s="145"/>
+      <c r="N65" s="145"/>
+      <c r="O65" s="145"/>
     </row>
     <row r="66" spans="2:15" ht="20.100000000000001" customHeight="1">
-      <c r="B66" s="129"/>
-      <c r="C66" s="141"/>
-      <c r="D66" s="141"/>
-      <c r="E66" s="141"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="140"/>
-      <c r="H66" s="140"/>
-      <c r="I66" s="140"/>
-      <c r="J66" s="140"/>
-      <c r="K66" s="140"/>
-      <c r="L66" s="140"/>
-      <c r="M66" s="140"/>
-      <c r="N66" s="140"/>
-      <c r="O66" s="140"/>
+      <c r="B66" s="147"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="146"/>
+      <c r="E66" s="146"/>
+      <c r="F66" s="145"/>
+      <c r="G66" s="145"/>
+      <c r="H66" s="145"/>
+      <c r="I66" s="145"/>
+      <c r="J66" s="145"/>
+      <c r="K66" s="145"/>
+      <c r="L66" s="145"/>
+      <c r="M66" s="145"/>
+      <c r="N66" s="145"/>
+      <c r="O66" s="145"/>
     </row>
     <row r="67" spans="2:15" ht="14.25">
       <c r="C67" s="24" t="s">
@@ -4709,13 +4780,6 @@
     </row>
   </sheetData>
   <mergeCells count="109">
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="K31:L34"/>
-    <mergeCell ref="M34:N34"/>
     <mergeCell ref="D40:E40"/>
     <mergeCell ref="D41:E41"/>
     <mergeCell ref="F37:I37"/>
@@ -4723,24 +4787,36 @@
     <mergeCell ref="F39:I39"/>
     <mergeCell ref="F40:I40"/>
     <mergeCell ref="F41:I41"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="J11:J13"/>
+    <mergeCell ref="N9:O9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="K31:L34"/>
+    <mergeCell ref="M34:N34"/>
     <mergeCell ref="F29:G30"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="K29:L30"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="J40:N40"/>
+    <mergeCell ref="J41:N41"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="M35:N35"/>
     <mergeCell ref="J9:J10"/>
     <mergeCell ref="K9:K10"/>
     <mergeCell ref="L11:M11"/>
     <mergeCell ref="L13:M13"/>
     <mergeCell ref="K11:K13"/>
     <mergeCell ref="I11:I13"/>
-    <mergeCell ref="J11:J13"/>
-    <mergeCell ref="N9:O9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="J42:N42"/>
-    <mergeCell ref="J38:N38"/>
-    <mergeCell ref="J39:N39"/>
+    <mergeCell ref="M30:N30"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="F21:N22"/>
+    <mergeCell ref="F23:N24"/>
+    <mergeCell ref="F25:N26"/>
+    <mergeCell ref="F27:H28"/>
+    <mergeCell ref="J27:N28"/>
+    <mergeCell ref="K29:L30"/>
     <mergeCell ref="N11:O11"/>
     <mergeCell ref="N13:O13"/>
     <mergeCell ref="K36:L36"/>
@@ -4751,17 +4827,6 @@
     <mergeCell ref="M33:N33"/>
     <mergeCell ref="K35:L35"/>
     <mergeCell ref="M29:N29"/>
-    <mergeCell ref="M30:N30"/>
-    <mergeCell ref="M31:N31"/>
-    <mergeCell ref="F21:N22"/>
-    <mergeCell ref="F23:N24"/>
-    <mergeCell ref="F25:N26"/>
-    <mergeCell ref="F27:H28"/>
-    <mergeCell ref="J27:N28"/>
-    <mergeCell ref="J40:N40"/>
-    <mergeCell ref="J41:N41"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="M35:N35"/>
     <mergeCell ref="M64:O66"/>
     <mergeCell ref="C57:E66"/>
     <mergeCell ref="J58:L60"/>
@@ -4771,6 +4836,22 @@
     <mergeCell ref="M57:O57"/>
     <mergeCell ref="M58:O60"/>
     <mergeCell ref="M61:O63"/>
+    <mergeCell ref="D21:E22"/>
+    <mergeCell ref="D23:E24"/>
+    <mergeCell ref="D25:E26"/>
+    <mergeCell ref="D27:E28"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="D29:E36"/>
+    <mergeCell ref="F57:G57"/>
+    <mergeCell ref="H57:I57"/>
+    <mergeCell ref="F58:G60"/>
+    <mergeCell ref="H58:I60"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="B14:B66"/>
     <mergeCell ref="C10:G11"/>
     <mergeCell ref="C13:G13"/>
@@ -4781,22 +4862,6 @@
     <mergeCell ref="H61:I63"/>
     <mergeCell ref="F64:G66"/>
     <mergeCell ref="H64:I66"/>
-    <mergeCell ref="F57:G57"/>
-    <mergeCell ref="H57:I57"/>
-    <mergeCell ref="F58:G60"/>
-    <mergeCell ref="H58:I60"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="D21:E22"/>
-    <mergeCell ref="D23:E24"/>
-    <mergeCell ref="D25:E26"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="D29:E36"/>
-    <mergeCell ref="I9:I10"/>
-    <mergeCell ref="L3:O3"/>
-    <mergeCell ref="G4:K8"/>
     <mergeCell ref="C3:C8"/>
     <mergeCell ref="D3:E8"/>
     <mergeCell ref="F3:F5"/>
@@ -4806,6 +4871,16 @@
     <mergeCell ref="L7:O7"/>
     <mergeCell ref="L8:O8"/>
     <mergeCell ref="L4:O4"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="I47:N47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="I48:N48"/>
+    <mergeCell ref="L3:O3"/>
+    <mergeCell ref="G4:K8"/>
+    <mergeCell ref="I9:I10"/>
+    <mergeCell ref="J42:N42"/>
+    <mergeCell ref="J38:N38"/>
+    <mergeCell ref="J39:N39"/>
     <mergeCell ref="F55:N56"/>
     <mergeCell ref="G50:H50"/>
     <mergeCell ref="I50:N50"/>
@@ -4814,13 +4889,10 @@
     <mergeCell ref="G49:H49"/>
     <mergeCell ref="I49:J49"/>
     <mergeCell ref="L49:N49"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="I47:N47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="I48:N48"/>
   </mergeCells>
-  <phoneticPr fontId="1"/>
+  <phoneticPr fontId="28" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="61" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>